--- a/inst/shared-links/original-links-1992.xlsx
+++ b/inst/shared-links/original-links-1992.xlsx
@@ -1,2275 +1,2282 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/619357fbac740032/Documentos/Ce-MECA-Pacotes/biomastats-github/biomastats/inst/shared-links/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_B99231273CE9E1C59C26B298FB9C099762993321" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9E8A764-00BE-4BD1-A9A7-A1DE5BE8B405}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="750">
-  <si>
-    <t xml:space="preserve">file_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fragment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shareable_link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">md5_checksum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-185-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1PXkjctoYDcf-cT_TBW7OWSqNBsYpZ4EX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1PXkjctoYDcf-cT_TBW7OWSqNBsYpZ4EX/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">450efbb524b517486e1242cdf5266394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MapBiomas 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">collection-7-integration-v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gdrive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-184-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1tRziHf2yibctgyY0rd_ahsQ3-BWG9mLh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1tRziHf2yibctgyY0rd_ahsQ3-BWG9mLh/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bebf897c3dca0996edc916d3670cc4a1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-182-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1WEX_PYPUflZlAhMM7l2zaLx_3YqWMQG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1WEX_PYPUflZlAhMM7l2zaLx_3YqWMQG1/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41f841b3d8bcce434eaf60a2bfb3c31e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-180-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1EZiEEPFmA1WoRxYxDE5YlhFv6KNTRgC0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1EZiEEPFmA1WoRxYxDE5YlhFv6KNTRgC0/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67a66a90fdfe44bfe34efa4582df60fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-179-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1u4-98YUHVf4pS0UaDEu8t7bMEOui89tm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1u4-98YUHVf4pS0UaDEu8t7bMEOui89tm/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16063a2c453b92df906e9964eb1438e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-178-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10WEQoFK49hbHzHbXayTHY6Q9TtPUpm0f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/10WEQoFK49hbHzHbXayTHY6Q9TtPUpm0f/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f74f09f56795c12b0f0835f65f2a87c1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-177-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1i6N5l-blNRQKWD2ZGMN-5qUE9dVloLRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1i6N5l-blNRQKWD2ZGMN-5qUE9dVloLRD/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ab346a1163c63987664deff62fa00851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-176-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15Oh3xXUNfOeDAlcydxCvyBi2Xe70arjX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/15Oh3xXUNfOeDAlcydxCvyBi2Xe70arjX/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d8f185b35f56eed161277b324492ab7c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-175-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1PTjm8wV02r8hzU7toO6PIplO6mWRk7jK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1PTjm8wV02r8hzU7toO6PIplO6mWRk7jK/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53c6028d20bcb07c28fda85fd30d4e53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-173-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ZKH01QJY-xCQILO7XUxlqVVv-XbeCiC0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1ZKH01QJY-xCQILO7XUxlqVVv-XbeCiC0/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4a29e85fab3c28fae0ef9d3bb1d82666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-171-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1H1h3HwGM7u7Xfy01TsolbN27zR2rK0zN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1H1h3HwGM7u7Xfy01TsolbN27zR2rK0zN/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1d028ee7ca5d638de7e99968160a09e6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-170-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1GDW9upO1B-azwtl56JCxo__9guBl0OwV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1GDW9upO1B-azwtl56JCxo__9guBl0OwV/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1c62f8b3f08c50b3847026168e95e36f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-169-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1jxMKleYniJH7PiyhycbjrFgWtUGKStkz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1jxMKleYniJH7PiyhycbjrFgWtUGKStkz/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54d3f52aead2cd8973aa7dd0e8b6cbc5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-168-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1NQO4qkqlPtAH5y1JxZxaHYvQCn3WjNP0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1NQO4qkqlPtAH5y1JxZxaHYvQCn3WjNP0/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b8002f48c310a06f43cc7185f3090b4e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-167-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1jt1Z_hdcybQAd6a8gJz60SU3SW24qL1k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1jt1Z_hdcybQAd6a8gJz60SU3SW24qL1k/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c393aa104919e83e2daae619a1918972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-166-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19umS8svl415zT5m5zg9iqrutpU76Iauc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/19umS8svl415zT5m5zg9iqrutpU76Iauc/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce7ba45636893a304dc26d343622565e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-165-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1MTXzZIuuyD2R4TBNMt9wyMvSkeftN5eE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1MTXzZIuuyD2R4TBNMt9wyMvSkeftN5eE/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e15b86fe86e083153107ba9bf882f8fa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-164-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10CCX8ZWfzGP8uulVFCH4H5AZWsBT2nbK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/10CCX8ZWfzGP8uulVFCH4H5AZWsBT2nbK/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">032260f3e3da53cf8d10e1262bdb0232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-163-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1v_O1Av-pOOe_aeyl_F8_7MbvdgyKFEKL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1v_O1Av-pOOe_aeyl_F8_7MbvdgyKFEKL/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a4ff1d61992905515f2e17945a19c2a4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-162-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1DpWvGPV1GlBq-Us9H1ZALyiHeVNEm5iq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1DpWvGPV1GlBq-Us9H1ZALyiHeVNEm5iq/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effb584882376a5d0483aebb25c1b8a7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-161-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1wIjB6q_SCHJE-Pq1E6pJwx_TfSfNDPZ4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1wIjB6q_SCHJE-Pq1E6pJwx_TfSfNDPZ4/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6dbb342bb921b6c9c9ad6377779d531c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-158-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1f7ObVXILUkW49jOUYxNwNNY_rlpPvxMw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1f7ObVXILUkW49jOUYxNwNNY_rlpPvxMw/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a51a8f5e1eb7352845dc544cb7302f30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-157-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1YBApq2eGllaGC5fNtbl0oh3QWglfm9J7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1YBApq2eGllaGC5fNtbl0oh3QWglfm9J7/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39159fc488423033ef39b5c3898f00b2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-156-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1TR9ob4rxr7SHdS23RohcMHnX3QkULiSW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1TR9ob4rxr7SHdS23RohcMHnX3QkULiSW/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7fe13d48b4e2e40518b4266cb2d0e1f2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-155-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1pX56LPqSeh74KTUe7jqx4ZsPA-RbN3y7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1pX56LPqSeh74KTUe7jqx4ZsPA-RbN3y7/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0a8bd6b91e575825a223946146144f78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-154-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BvkZwk507VC7pTUYVsWkTUuJjHjgAuPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1BvkZwk507VC7pTUYVsWkTUuJjHjgAuPD/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a30037f43637aec5a7c085451a3a2dd9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-153-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120Bpb31AavKtp3KQQ9Mj5VGmbSmj1Whh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/120Bpb31AavKtp3KQQ9Mj5VGmbSmj1Whh/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8d89f74dddf5e1cd772fcc14ae6897e7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-152-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1PyO_Ojsx9mYuQVi4002dGeQOxnjnDVrQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1PyO_Ojsx9mYuQVi4002dGeQOxnjnDVrQ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7b3c2d4fcbb1861c3eef5ed203e46825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-151-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1MQmwCKbzjPeNhDaH6K7c-_pDTGgEtZ8f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1MQmwCKbzjPeNhDaH6K7c-_pDTGgEtZ8f/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fccf73876a9e796b9b9bd01b0dcee50e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-150-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ZtxuRuYfI2R_NPSeRG0XRkp_2gzkBm-y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1ZtxuRuYfI2R_NPSeRG0XRkp_2gzkBm-y/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a5dce211d435508881dfd9a9ea9b25de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-148-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1XUTk3LFUvC4kkrBl7S7SUj9v4n-p9euJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1XUTk3LFUvC4kkrBl7S7SUj9v4n-p9euJ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fd4d57d85c4f272f26177da36e56d38b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-145-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11TX-5JczwihBytjejB1aAHzsdaBvSrsK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/11TX-5JczwihBytjejB1aAHzsdaBvSrsK/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4a2c42a5278013afab4737fe3551aeec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-144-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1jrFPGkL9BjYEe6AAdFDB_HwIrUJw_i_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1jrFPGkL9BjYEe6AAdFDB_HwIrUJw_i_t/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">555f8b4c754c2a4f09c9be53ca34bf95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-143-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1HRTjn_68CfhkaYVLUQy1saowDbyU26rl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1HRTjn_68CfhkaYVLUQy1saowDbyU26rl/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7d1296993d528b08909ced6b526fb03a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-142-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1WZcdb5_5_-jAvjWjPisrbrMdgeepALJF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1WZcdb5_5_-jAvjWjPisrbrMdgeepALJF/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1c483d20742d45a3dc90bc8393c1f9e7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-141-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1oOBzKEFjgxhGzZ4ZQ9EymPne8N1YAfYl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1oOBzKEFjgxhGzZ4ZQ9EymPne8N1YAfYl/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2d8cc21bb4c67b7a23d7d7e88dc89fa4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-140-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1gwk-ScXKOeiGG6DLdEEfAM3LirBdEYKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1gwk-ScXKOeiGG6DLdEEfAM3LirBdEYKA/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f52bbc6e0f4264fd80f7a5aacdbc345f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-139-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1tbZyuZl_wYh5bUEdI-dg6KfV_QrL0Mlh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1tbZyuZl_wYh5bUEdI-dg6KfV_QrL0Mlh/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">095dd77569c603b4e615d1f6b82af361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-137-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1tz9t5cOeqMHx_V7SX4RFvHhM20SdDgKI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1tz9t5cOeqMHx_V7SX4RFvHhM20SdDgKI/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">008f74e490344139f2d08d2c55d4165c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-136-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1A0B03zCgcahvxT7NiJNxjPWbQ1zn1xMQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1A0B03zCgcahvxT7NiJNxjPWbQ1zn1xMQ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0799309f562fc251816b385d97a1a19d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-135-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1psJrtoR_q2Fnj-o2xrLYkGtY7hOuGWrT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1psJrtoR_q2Fnj-o2xrLYkGtY7hOuGWrT/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37cc9dd4a6e1f254a8e3313dd511548a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-134-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1IA5pW6nv19mNA5mswrq25CsHjJtvDu_e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1IA5pW6nv19mNA5mswrq25CsHjJtvDu_e/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4f2af991107a7258e0217616d94549dc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-133-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17ZCN9Gt4aarQhayGJ6n4-aigP_uTxvVY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/17ZCN9Gt4aarQhayGJ6n4-aigP_uTxvVY/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">891a660f542ab2e61641a69e57a15790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-132-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1kOb8kYWSjP0ThYkEGXuSCe8DvqClIZ2R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1kOb8kYWSjP0ThYkEGXuSCe8DvqClIZ2R/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6159fcb4aa874bce38d7a4bd2b6bf361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-131-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1M1d72byL2zm3QFBv-IAtJizulDHg_k0r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1M1d72byL2zm3QFBv-IAtJizulDHg_k0r/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8f0d4d9e26c3170b686546b6a35c159e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-130-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_9Usa6dveB1lXkAGSPT9KpYwlsai8MFr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1_9Usa6dveB1lXkAGSPT9KpYwlsai8MFr/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75f3fc134d2b747bd2ebd1caf53252c1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-129-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1lN2tYSaqwB_eEcNon5MdTbBlUuFC6tWF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1lN2tYSaqwB_eEcNon5MdTbBlUuFC6tWF/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9625b64176e78dc2454c5ba68b62343b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-128-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1js37oB6YWgZVQrkr4g24X-KiDVXEqvVp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1js37oB6YWgZVQrkr4g24X-KiDVXEqvVp/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257555834758b9261586b0ac42bebab0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-126-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1NUyb7YSZoXLhrATxaMC9EbvxyPYVJI_Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1NUyb7YSZoXLhrATxaMC9EbvxyPYVJI_Z/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c57b943a89b6170ec66f30d1d3000280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-125-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1O7kVn5go5noDcjADCHllrgbDXypN7IrI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1O7kVn5go5noDcjADCHllrgbDXypN7IrI/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fd59a5c67c86abd2ad7aeb5e344f0369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-122-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19KkewbNvGahLHu4InBD0RcDDtEeObKHj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/19KkewbNvGahLHu4InBD0RcDDtEeObKHj/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61cb3c6c12895ce02a13bd4fe91a4833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-121-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Ir2WN6cPalkOqa01fpdJB9r5jSXLMZBv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1Ir2WN6cPalkOqa01fpdJB9r5jSXLMZBv/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">643e30070bb0cce446bd282d4637dc3a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-120-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1DSTybxvRIRRMzOwsrtFTxgR2p7ImPEY4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1DSTybxvRIRRMzOwsrtFTxgR2p7ImPEY4/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">af8a1671a7184511b82f0a313ae86f46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-118-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1v3zQEOdmVWCGfIRSx8S3nYWjSWr04Oc0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1v3zQEOdmVWCGfIRSx8S3nYWjSWr04Oc0/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fa11bcc30cb41e25c3ee124f96c25420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-117-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1GR-E1vxx5NbNNBY_mVQUYRshLFkvET9C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1GR-E1vxx5NbNNBY_mVQUYRshLFkvET9C/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">035427d5e05ceeabf53cc95380883566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-116-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1UfRhgI4wXT5Gn365oLDjz3MLb5aJhV25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1UfRhgI4wXT5Gn365oLDjz3MLb5aJhV25/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6732f2d8fde465f289c872ce3932ece3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-115-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14OVjrCHZzTcCbpHH3lvlpWfdPm-NxGEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/14OVjrCHZzTcCbpHH3lvlpWfdPm-NxGEX/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4a06ebde28d45eb46da6581c79dfb266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-114-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1gfiOOk2ZorBkSf0awpyiqmJs6oHuuQIx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1gfiOOk2ZorBkSf0awpyiqmJs6oHuuQIx/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9d3a136f938489ab59c9a8a2eb56031b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-112-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k_vKu8kNFddHZiOpV3koQtQX1nKWfAk_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1k_vKu8kNFddHZiOpV3koQtQX1nKWfAk_/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93839a524c83bcf269d943361453756e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-111-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1JS5pKwO6xG_BdyHvg9oYay7h_OqbXPl2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1JS5pKwO6xG_BdyHvg9oYay7h_OqbXPl2/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4b3e15a1e8b16f219859364d1d9cdaff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-110-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10tco-Xh1-V3sJYkbZOLLsBYC1tVDqMkj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/10tco-Xh1-V3sJYkbZOLLsBYC1tVDqMkj/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33e0f1ad7240880564f279cdb97480af</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-108-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1CX0hGeNEHRzH1c1XmWuPu0GSWAIbrRQV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1CX0hGeNEHRzH1c1XmWuPu0GSWAIbrRQV/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4bac1ba7f50dd95c92f8208d919e95e4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-107-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1y-zewfyMBpaTOzOd4Y2BtiwAVqHSNz0W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1y-zewfyMBpaTOzOd4Y2BtiwAVqHSNz0W/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eb2fb26e8c471abdd315a2b6eeee4c1e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-106-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1TQLHuKaGf9frKQXxGy1eGzHDZNDAnKTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1TQLHuKaGf9frKQXxGy1eGzHDZNDAnKTU/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77f9506a79d04b55b70a8b033cf7ca2b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-105-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Nhdgl-LMfRIX84YsxR3RcAptQh2MaVi5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1Nhdgl-LMfRIX84YsxR3RcAptQh2MaVi5/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8bc7b2309ed8fc18928c2a40afcaad73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-104-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1JwIjmAJeAIJosbDByONZJablCU67hzPd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1JwIjmAJeAIJosbDByONZJablCU67hzPd/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2e07f1e76bfbd4a5602d3e5cc7f2e062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-103-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1PfYRT2N8DzVPdfsRNjB5Ecq-CZUtOc54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1PfYRT2N8DzVPdfsRNjB5Ecq-CZUtOc54/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a3340d5a703cf66f7e44d40147e85c1f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-102-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1nTk3zVId-KO6u1q9WM59PfZ0m4FSh_os</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1nTk3zVId-KO6u1q9WM59PfZ0m4FSh_os/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ceb04d73ecc3349e0802db0702d057d2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-101-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11X03ZkqOD-LVKpMvcfPRZJnkfOxs0eO5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/11X03ZkqOD-LVKpMvcfPRZJnkfOxs0eO5/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55a85e0137f715ccb10e42fc7854533f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-97-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13jrPMXGa3HLimb9srMtBNH8XdYxncMpx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/13jrPMXGa3HLimb9srMtBNH8XdYxncMpx/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bb92c2843d272c27b9656932cc880262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-95-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1DeXKKx0Zyjfl2iYQIsa7iFe57ulXtLSL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1DeXKKx0Zyjfl2iYQIsa7iFe57ulXtLSL/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d50702a9e2cebc5a9dedfb0f1dfd907f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-94-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1WigR4Y4INJqg_yNO10M1malLpnCx8vhF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1WigR4Y4INJqg_yNO10M1malLpnCx8vhF/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0c818577df26c5096bb54ec26e294143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-93-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1CD3BpKRcY-OXKC-xQdBLI3n-vBNXDm3L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1CD3BpKRcY-OXKC-xQdBLI3n-vBNXDm3L/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5f3146c2f12cc3040b8d3b1e4c2142e2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-92-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1TMx89JelXNDS2ii2v5zVkP79GxCtB09T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1TMx89JelXNDS2ii2v5zVkP79GxCtB09T/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">424d5833046ec61b2394c03216264afd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-91-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1IYK1lXRfxPR2IF4BwI0rc_Rmj81PAZ3z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1IYK1lXRfxPR2IF4BwI0rc_Rmj81PAZ3z/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">283255a7c2050d576c8e04401c9ae3e9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-90-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1aG0uaTBxq01t8pu8SnU8wqSV-gVkEc1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1aG0uaTBxq01t8pu8SnU8wqSV-gVkEc1A/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61b2e6c68c69520ccd5684d3dae18267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-89-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16pG3_qM17mvKzzI-7EZAjj1A-oGZDVpJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/16pG3_qM17mvKzzI-7EZAjj1A-oGZDVpJ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24d0a1571f0fa011da3ae643cdc065c0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-87-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1kGyu_8q0yBQRaszWpqnRttxbEQ79rE78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1kGyu_8q0yBQRaszWpqnRttxbEQ79rE78/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57fad9c2495de41dfee3767afb2c9505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-86-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Kz7YcBTLi2UFXoMlz-Ab2zAxFLbRZEFb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1Kz7YcBTLi2UFXoMlz-Ab2zAxFLbRZEFb/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce7c41d887fe3b5945d0208aa8c5a71c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-85-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1fskViGZuUUMigo2KtbB2wSdyNONrZc1p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1fskViGZuUUMigo2KtbB2wSdyNONrZc1p/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6d24d509d8b88fad297c40e66e3c4eca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-84-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ghYqQo-v7cWwcjS6H63LKJiDOaQJqF5Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1ghYqQo-v7cWwcjS6H63LKJiDOaQJqF5Y/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7aee7c5f6fe11e990978efb5c9fdd902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-81-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165QkPPDUzaK2KC8lHD5wTYZtAyKBCi2X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/165QkPPDUzaK2KC8lHD5wTYZtAyKBCi2X/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7310836c7fc732b53480bb3afb118a13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-80-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1qKZTce6afmXA1LQzaQNWoZFjeW-2RPlx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1qKZTce6afmXA1LQzaQNWoZFjeW-2RPlx/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5b8a86fff7f67c6d416cb09562bc61b5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-79-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1p_Q1UpIjftDoKWq8qwdCKsE7Gb4MKhmP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1p_Q1UpIjftDoKWq8qwdCKsE7Gb4MKhmP/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7da4c316f10dc357d9232b880b3a4a30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-78-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1gfnRMwD-FJTAfLbCtbgqlz23P5zroDML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1gfnRMwD-FJTAfLbCtbgqlz23P5zroDML/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">989848b260763bdb2b1cd038ca5b6776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-77-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1YrjZvLD1mRtCr8fTFACL_v5s6mbZdeZY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1YrjZvLD1mRtCr8fTFACL_v5s6mbZdeZY/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">531b045de79ae3446932fb1aec4d0ef8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-76-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1eoTfMKYOCr4Ww9yqiY6CY8W9roBcX85z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1eoTfMKYOCr4Ww9yqiY6CY8W9roBcX85z/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b0d7a52fc03f9ba09a0076e6e392046f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-75-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1M52MqnePz-0_JW_AwqAaNmGBto1YZWIj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1M52MqnePz-0_JW_AwqAaNmGBto1YZWIj/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29c312ccd022f961f8780baafe06c10c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-74-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183MUVJWpQ88fQKt3MCX5wjFioFCW5kAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/183MUVJWpQ88fQKt3MCX5wjFioFCW5kAC/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">774b8050cd9d228546cf6d63d8a5692c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-72-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1XaC31Rh-bXevRLgvxDM5zUhkuc1KtHHD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1XaC31Rh-bXevRLgvxDM5zUhkuc1KtHHD/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ec066b5002c557407f23ffedb930cb6a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-68-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1vR7-FugZyYGwGD_kbIyrF1y9qxqZKkOq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1vR7-FugZyYGwGD_kbIyrF1y9qxqZKkOq/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7147cc119aa092c12edb061c7e524a4f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-66-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-RxhNqQxzTcd3vU2LYi2j1NSmuelu5BE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1-RxhNqQxzTcd3vU2LYi2j1NSmuelu5BE/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70f15703ff21f1c57fb1868892bacf9c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-65-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110KoKQTfcnT36as6qzg5BATWv0pua7Br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/110KoKQTfcnT36as6qzg5BATWv0pua7Br/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9437221b0ecc0ae24057059b39e4ad77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-64-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11hhTL00jZJY_EmwgCYfAIag87ZXyT3fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/11hhTL00jZJY_EmwgCYfAIag87ZXyT3fc/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45ec5223ac32e6a586918216458213c2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-63-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1es03-FuWTY12J3zohTLnK4nFZ_WG1Lml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1es03-FuWTY12J3zohTLnK4nFZ_WG1Lml/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82d5335471563dd83a144bc94829a3b3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-62-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1TP9f_rNnkwSoDuD-EQdjoA9gQdjISpMs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1TP9f_rNnkwSoDuD-EQdjoA9gQdjISpMs/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2c107d1558d229cfbe29bae55f065819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-61-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1uiFpFHM8twTLp6VUoxkxr-hY_CYe85Jp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1uiFpFHM8twTLp6VUoxkxr-hY_CYe85Jp/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db4574bcb2da9554db8b36e3a95611f8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-59-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1pWx2b0bqKy2QAkyWKYewbvLI0k4aOD5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1pWx2b0bqKy2QAkyWKYewbvLI0k4aOD5L/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0ae41fd9aae803e428ab226af8a625a4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-58-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1mopiOjLklHUwzCUkVSrxX6W_XAtMtAHf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1mopiOjLklHUwzCUkVSrxX6W_XAtMtAHf/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36888be565330e6692d157a1bb387bf2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-57-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1DkrmLvevRgtsJoGlVRzgsuNuX0-3LK94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1DkrmLvevRgtsJoGlVRzgsuNuX0-3LK94/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703885c276f44779ba3d2b49e72abd0a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-56-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1DvPUyis8lSM-5k6Z6JTaz_zCvGUddONe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1DvPUyis8lSM-5k6Z6JTaz_zCvGUddONe/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2e8f736923d45d1e1c4ac384e1a9c5af</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-55-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1DWKFCaBaHS_bTpEr1cNg6S0fESSX5D9G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1DWKFCaBaHS_bTpEr1cNg6S0fESSX5D9G/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68a807e7f80cbfa1ea28e6f8c66b2991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-54-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Pgf47n3KmShCYn15pe03Y-5LcUPf9n0b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1Pgf47n3KmShCYn15pe03Y-5LcUPf9n0b/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cd49d421fffbecec4a1f2cd468461300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-53-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BY_qmJoRf8ciN1gsfgFFsnqWmtmy7Ysn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1BY_qmJoRf8ciN1gsfgFFsnqWmtmy7Ysn/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">057653a9eaefbd8823f04b4857bbdd56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-52-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1gPHqrXptnCi_ehr1yLkpVG1qtXHU6-Iv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1gPHqrXptnCi_ehr1yLkpVG1qtXHU6-Iv/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c4b467fb621e7b0cc73a32b7b7f798a0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-49-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1NwVcug-sV8g14m7wFlIcG99r69KJAKoA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1NwVcug-sV8g14m7wFlIcG99r69KJAKoA/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88209f8a5a110fba6e30d9dfc1592951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-48-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1WrfEkAe7dCAjXDJHVuEhrwk19zy2ffue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1WrfEkAe7dCAjXDJHVuEhrwk19zy2ffue/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">090be3f55754e71e97e60cd0d0d2960f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-46-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1T2ZPmN5emYSTYgcpJERUAs-73YWS5lre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1T2ZPmN5emYSTYgcpJERUAs-73YWS5lre/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123e0a118dd65fba47e9719eaa3207d2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-45-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1nETaT03k6BpQ9RXnH_O74PRJupcZRYX9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1nETaT03k6BpQ9RXnH_O74PRJupcZRYX9/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edbb68376054fa6ebc6a93e32c160676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-44-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ydwqRQ1IG9GNcgWBBZ71KnfFxJVCowZm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1ydwqRQ1IG9GNcgWBBZ71KnfFxJVCowZm/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8a35b9bc5dca692121ceaaf849640c07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-43-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1OR3w4QS8d_RgltyzdNlp_jAM0AQoHtB-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1OR3w4QS8d_RgltyzdNlp_jAM0AQoHtB-/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86ce97edde4146d303f0f7d98332c749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-42-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1S_fl6yT8pa6ii_QnizAcsuQOl-zFGQwt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1S_fl6yT8pa6ii_QnizAcsuQOl-zFGQwt/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4aa006801e7ede9cb4214eb261dab1ed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-41-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1QCcXpyQ1Zr0YCYInq2eFWO8we_zv6aOj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1QCcXpyQ1Zr0YCYInq2eFWO8we_zv6aOj/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c350a84a3afa3d347c9d8b3f59889627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-38-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1GT3ehEbC-14Zk07xFZq1eXrSVh7QeR1I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1GT3ehEbC-14Zk07xFZq1eXrSVh7QeR1I/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88b955416484caac47fbadf1f92b7974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-37-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133IU25psk_tfReTE5Ip2DbPbLiNTVBd-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/133IU25psk_tfReTE5Ip2DbPbLiNTVBd-/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7091a00ae4bb6f1fcaaf0c6ee11c7b69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-36-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Su-SUoNgilF1UnrmVq8B6MkolMFEDkgZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1Su-SUoNgilF1UnrmVq8B6MkolMFEDkgZ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d7472e7b20257a594b154bc6ae136437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-35-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1A_1thmTK9U72pt6y1gEdwqNv2xrn-EMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1A_1thmTK9U72pt6y1gEdwqNv2xrn-EMU/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6696ee810da1b376cbd7f253c74a5c80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-34-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1NPDCc6Zj4BW8HKI7JEYt9OCFmgBYVMlc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1NPDCc6Zj4BW8HKI7JEYt9OCFmgBYVMlc/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8f0916345d752bf9fc3b4f26537d10d7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-33-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1vozRvgh7-BejIJWbvey9Bi9Kfbm-1W-q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1vozRvgh7-BejIJWbvey9Bi9Kfbm-1W-q/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6cd3f09e947bad2da8640c1eb9fb0481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-32-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15KqeQogZTOT_dKfjBSWAunH1XocgxNEm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/15KqeQogZTOT_dKfjBSWAunH1XocgxNEm/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1798e18429aa1876da0957cddf79c629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-31-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-CFFOXqn2h2uodI9q49cGy5ss2K9uKBY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1-CFFOXqn2h2uodI9q49cGy5ss2K9uKBY/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78786d079f66ce8a2496f93ae01390f3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-30-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13PObH2f2O62s1TCHl3lz9ezDL6HqsNZS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/13PObH2f2O62s1TCHl3lz9ezDL6HqsNZS/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66bd6f778fd709dccf7cca069e02a98c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-28-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Mc7p0imKbjQ0qpkxgJ1um_MpB6co1rWQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1Mc7p0imKbjQ0qpkxgJ1um_MpB6co1rWQ/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9544785fd934fc4ef4ebc5402b9c3d5f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-27-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1wL4zj4qhEJrhq13UPq5dfLNAiKzwcpBg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1wL4zj4qhEJrhq13UPq5dfLNAiKzwcpBg/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">090ff7fdd55537fb7290a2138aa7b123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-26-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1sqjNrqPztPqGa375W4GuzqY5HxLljJ_X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1sqjNrqPztPqGa375W4GuzqY5HxLljJ_X/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d8b93b88fa503a87f68a09eb713e46eb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-25-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1DT_PP6a_YSJF6CKEfPag6AkNJC-N3p1E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1DT_PP6a_YSJF6CKEfPag6AkNJC-N3p1E/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bd78e806cbc997a521e3adf7b8617523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-24-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11U6DfRxyu599xkmXn_a35N2RIRXTjfqC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/11U6DfRxyu599xkmXn_a35N2RIRXTjfqC/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">392281388f509452d7769aed22461243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-23-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1IuYv-yY9dVq5YKh7NikykeU8On2nLxLV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1IuYv-yY9dVq5YKh7NikykeU8On2nLxLV/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c009c10d5221ed4b4a25ffa9641c90a8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-22-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1hPtWywMP9NqXoERYqGvNV1D8M6IQj-_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1hPtWywMP9NqXoERYqGvNV1D8M6IQj-_0/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7a8d88bb6dad927501b425cdb63a4d86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-21-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1hdmioEPxTukb0SYjTQ-03MnK5HlxxMhN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1hdmioEPxTukb0SYjTQ-03MnK5HlxxMhN/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a603827042c231e9ac30cd052574dcb7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-18-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1VJmEaN7aFKthZFQflrXHUGUI-us9wVe1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1VJmEaN7aFKthZFQflrXHUGUI-us9wVe1/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6307080b37a11e6a9f549092b907b5a3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-17-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1EDEeN8ykUAxsdzkPG8YsacYNvl-hFpXp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1EDEeN8ykUAxsdzkPG8YsacYNvl-hFpXp/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">702547d46b3e131e8e9ac9ae89c7ec3e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-16-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1o88g8Du3DKM5y-qSUGFyUb_BQBFK8Lyu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1o88g8Du3DKM5y-qSUGFyUb_BQBFK8Lyu/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">845bcc76d878202128f7b46254a6e187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-15-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1eQZ6EKmW1E8P4I1defbgpsVECkNRR013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1eQZ6EKmW1E8P4I1defbgpsVECkNRR013/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c0c5ed2ca6a3bb4b7aa447d7d31f3a5f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-14-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1eauZQF3Ii1HEsTmb6AXFLUsMpgnI2gT5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1eauZQF3Ii1HEsTmb6AXFLUsMpgnI2gT5/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14fb037f269724ea6783311bc4213352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-13-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1WpDsT8sYeGWY9A7-7jJpXh_6_LUTFo0G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1WpDsT8sYeGWY9A7-7jJpXh_6_LUTFo0G/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8a17ad836dda649849b4abd6a264f278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-12-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1HbdEVCAUlOUIi_J4-XmbUqPW_W-7MtDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1HbdEVCAUlOUIi_J4-XmbUqPW_W-7MtDT/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e7449d175c6da3c171af93ba781c99b9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-11-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_XVKsDAUlwO-O6D8EAnFtVEIlTb8z4XR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1_XVKsDAUlwO-O6D8EAnFtVEIlTb8z4XR/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2862d021b8ed06129b7366d019ded995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-10-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1xywmUcG9IW4u-a90hU7btXJ7KJR-m5S_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1xywmUcG9IW4u-a90hU7btXJ7KJR-m5S_/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7132d5bea8c2edb1a3e043fd68689482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-9-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1MIz2sYMVJnlTMJrcDOLIu4IOxLDt8AD5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1MIz2sYMVJnlTMJrcDOLIu4IOxLDt8AD5/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">970ccf52dc42156fc6277f8f7ba8f3ec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-8-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1nMVKpMskxUa1DwDYLKf-eGt-ymvZQwkj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1nMVKpMskxUa1DwDYLKf-eGt-ymvZQwkj/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63be69194335b7150e7985146382f746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-7-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1U0YGY8Sqo94NBi5CrO4CbXkGcGAmgxDh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1U0YGY8Sqo94NBi5CrO4CbXkGcGAmgxDh/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a6cc4dd1508d9ed4419ccbe0a4d7e08b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-5-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1shxDQxidK3C11Ba041-UnBWZHW90y_rX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1shxDQxidK3C11Ba041-UnBWZHW90y_rX/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08efa96e8d18378b7cb025d7d51df9c0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-4-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Zy_hhxMhpn08z3n4wYYA4FV_e-Z0SSe0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1Zy_hhxMhpn08z3n4wYYA4FV_e-Z0SSe0/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ee7d9289407b688e7b7330c2e32c41d7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-1-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1CyZcrgqz4PdmqwvBvQH1IUv29a16PP78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1CyZcrgqz4PdmqwvBvQH1IUv29a16PP78/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4699e12bd96aac38dc9141de74ad75d0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-172-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1cAsBqZ4zhafDxy40BdhNH31fLKyk3gn-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1cAsBqZ4zhafDxy40BdhNH31fLKyk3gn-/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c33fdb8e7272493e9f668e970610568c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-183-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1UJDWm9-tD4YEBGts6paLYFPOPXtb66Gy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1UJDWm9-tD4YEBGts6paLYFPOPXtb66Gy/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f120397a7b55e66d2a838b1668241c80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-160-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Y5GlMcH0zHIF3jfmY4ie5UsQMSn-5OPY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1Y5GlMcH0zHIF3jfmY4ie5UsQMSn-5OPY/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73eb1d1712dd73fdd285dde4c24e8a47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-181-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1T_srKrDg9jfUkq7hn2DiGv-pjr31cOLK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1T_srKrDg9jfUkq7hn2DiGv-pjr31cOLK/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db802b0e04e91bc64d783961c540473d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-149-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k_DENLnbB8cGtU8tWPBY6MDLaTdKms4j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1k_DENLnbB8cGtU8tWPBY6MDLaTdKms4j/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67e7802519f9050aa16f1656f4495590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-146-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1uW2sfjihGek9PYKiUCMCpmAme0_AyoFp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1uW2sfjihGek9PYKiUCMCpmAme0_AyoFp/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0bccedca994c14baca423a137a01fed3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-147-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1CZ_fw2HLI5BYbO9-JswrKCwE9p6l0r5x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1CZ_fw2HLI5BYbO9-JswrKCwE9p6l0r5x/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a6d5889f280c6b81af17ba5dd9368fab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-159-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1fr5fqgURkEGUwD9wj_h-unAnxYUthsyO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1fr5fqgURkEGUwD9wj_h-unAnxYUthsyO/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">951fab5bc6f471019fbd1e2d886f5d76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-138-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1z9w3h48xPV0rhWrbvL2NNAPqYO9pM5aT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1z9w3h48xPV0rhWrbvL2NNAPqYO9pM5aT/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9563463c7f60f368ab24f1603178de10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-113-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1iFyHjv53IJZIxwiFxvwL-sORthIv-dTk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1iFyHjv53IJZIxwiFxvwL-sORthIv-dTk/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5dd492fb46d97258c8b51686c13631db</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-119-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1I4AHDomz5wVfQkam-DE-WkVwapPDFwdF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1I4AHDomz5wVfQkam-DE-WkVwapPDFwdF/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ef655e470af4579bc6b1ee71372d75ea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-109-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1npYLBVKyrISXVVPL69PwuGDoMyU8icS-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1npYLBVKyrISXVVPL69PwuGDoMyU8icS-/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6ce6166cca06682fdc20452b679e7abf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-100-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1TN95t6u2lzJLM0Fsa5sJGRTRDACEqxCF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1TN95t6u2lzJLM0Fsa5sJGRTRDACEqxCF/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62dc474c9469821761f04069dff52fbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-127-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1yFSNtfO2RgTX_RTgE8UjRi8MkCLq7QDb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1yFSNtfO2RgTX_RTgE8UjRi8MkCLq7QDb/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55128d9e1b9e463cb87ddf6595ef62fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-123-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1NNFF3c7BtiCFarMYa7g-J5_n33a0vn6Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1NNFF3c7BtiCFarMYa7g-J5_n33a0vn6Y/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6a8491c35ef9d13630fbf871ce75099b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-96-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_jdqYSuNt6ukCPk3Q16h1acvFi0JQoyY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1_jdqYSuNt6ukCPk3Q16h1acvFi0JQoyY/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77b467a83a438ec9f610dbb6ee78a596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-99-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1zlgP_dTCnbmzatWoDtfmCODmxbB1auVL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1zlgP_dTCnbmzatWoDtfmCODmxbB1auVL/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3bac4a2fbe2356eab89d718b11d0cb0c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-98-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1XqD89OTTokhObpWoP-vc9lPxu2Tlvp5b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1XqD89OTTokhObpWoP-vc9lPxu2Tlvp5b/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4df4093fc315c4772338703fd6ff3b13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-124-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1xMLx87bgyVca-WLJ_8IUJeOyVo89WtzU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1xMLx87bgyVca-WLJ_8IUJeOyVo89WtzU/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37b03dd6975ebcb17a59941ba6dfadb2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-88-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156ZGNXz5jkih1yPyzS0Hd8UhMhAlSqUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/156ZGNXz5jkih1yPyzS0Hd8UhMhAlSqUT/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">950f1cf3dad2a3913b5144f8579238eb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-82-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1uOspJmxRXyDjv8_sV6Inl-YlM50v4oUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1uOspJmxRXyDjv8_sV6Inl-YlM50v4oUB/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0f8a2735affab6b94a215bde25f81cd3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-67-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1HXbboNo104XC82NEZnpXQDs4VNYa_qdU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1HXbboNo104XC82NEZnpXQDs4VNYa_qdU/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cc392ec12ef6bf94f9e99cbfe196d824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-83-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1yhbFL1oBcLHGvQ0z3naUDTSzcCkAzc-o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1yhbFL1oBcLHGvQ0z3naUDTSzcCkAzc-o/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2e6c41d2c166940a8ec694e48d78f6c8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-73-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1OiIb_Z48o33luTNyqyWltTqCTTeBEZ3R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1OiIb_Z48o33luTNyqyWltTqCTTeBEZ3R/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">971784a04bbe1048c21fb1fbe11419c6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-51-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1pSputRY6T2pzY2I6UI1Enngxw6o49su9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1pSputRY6T2pzY2I6UI1Enngxw6o49su9/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71e164a0c678c0103aa9f486207af3b5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-70-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1kIC40OWk6Y-CLnqoq_Bqq7yQurY1MS2u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1kIC40OWk6Y-CLnqoq_Bqq7yQurY1MS2u/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36d7c5aa2b3ef456d28bb4ca951ce177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-47-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17hwI-JmaQ1SA0HN6lUPsZi89MBOvG1Jx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/17hwI-JmaQ1SA0HN6lUPsZi89MBOvG1Jx/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">da52f59bce03e352b6ccb5d73fb7e417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-40-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1hdZnw2Pm3JDFy5lxL9a5RM8dj4Q-aHIV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1hdZnw2Pm3JDFy5lxL9a5RM8dj4Q-aHIV/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c908746a016e94478d22d2c8484ba634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-60-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1L9CZrjZXS0F2wPHfE6Yj5cwSbKXyiXHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1L9CZrjZXS0F2wPHfE6Yj5cwSbKXyiXHI/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4365debdade983a8ba107d771160995b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-69-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1pDUT1whIdW_z0OcCvMZFoP6ejhz9ishD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1pDUT1whIdW_z0OcCvMZFoP6ejhz9ishD/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">315ea32f1674be735b43be669c834a82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-71-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16LDpyR-rxo2TQrcGh6JVfVuiSoJhXBcP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/16LDpyR-rxo2TQrcGh6JVfVuiSoJhXBcP/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a3d5af1829b0d4f5b8e7c8d7c46bb922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-50-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137zFT3LrTqlDIlrbAPURAEdc7IpfRuM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/137zFT3LrTqlDIlrbAPURAEdc7IpfRuM1/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eb5c24fb846f6576cdce6d66622e4c62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-29-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1IrP1EXfS7Ddx-U6RzqzsyNBwmKo0I2A_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1IrP1EXfS7Ddx-U6RzqzsyNBwmKo0I2A_/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00f3507488ad3c2e7e0f19936a9bd296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-39-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1fzdHxJCvk2v3zkPfeoGfmV8LGXN7rF9j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1fzdHxJCvk2v3zkPfeoGfmV8LGXN7rF9j/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7dd0d28d43149c5ebb0aa0816e48ffa5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-19-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1CyKCdQ7dOfzHMKpBqlQIZ-F68RgPtiQw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1CyKCdQ7dOfzHMKpBqlQIZ-F68RgPtiQw/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08af3bb21baef87a490efaa99e6df8bc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-2-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Pslf0S1gquGDT1R8dKBrHGI6cjRwMWhF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1Pslf0S1gquGDT1R8dKBrHGI6cjRwMWhF/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22d22038d4a5d198ed1b46a7e99d4ddb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-3-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1M41CaAUjxi5jc-LqEnVvTXuhMoXNOL9G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1M41CaAUjxi5jc-LqEnVvTXuhMoXNOL9G/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d0691ca40f5f767be8985239aa773c98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-6-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1UnGK88q-5Mrv34ZtP8jLH6AAnAhNyW3l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1UnGK88q-5Mrv34ZtP8jLH6AAnAhNyW3l/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81d132a253b60b4cf4bf2bce31afe5fb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage-frag-20-year-1992.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1lk1Bauk62C3RC-2lXI-hk9eTRX2BpEJY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1lk1Bauk62C3RC-2lXI-hk9eTRX2BpEJY/view?usp=drivesdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9f01dfe49935e8d8251798227bf6fc84</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="750">
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>fragment</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>info_id</t>
+  </si>
+  <si>
+    <t>shareable_link</t>
+  </si>
+  <si>
+    <t>md5_checksum</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>coverage-frag-185-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1PXkjctoYDcf-cT_TBW7OWSqNBsYpZ4EX</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PXkjctoYDcf-cT_TBW7OWSqNBsYpZ4EX/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>450efbb524b517486e1242cdf5266394</t>
+  </si>
+  <si>
+    <t>MapBiomas 2023</t>
+  </si>
+  <si>
+    <t>coverage</t>
+  </si>
+  <si>
+    <t>collection-7-integration-v1</t>
+  </si>
+  <si>
+    <t>gdrive</t>
+  </si>
+  <si>
+    <t>coverage-frag-184-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1tRziHf2yibctgyY0rd_ahsQ3-BWG9mLh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tRziHf2yibctgyY0rd_ahsQ3-BWG9mLh/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>bebf897c3dca0996edc916d3670cc4a1</t>
+  </si>
+  <si>
+    <t>coverage-frag-182-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1WEX_PYPUflZlAhMM7l2zaLx_3YqWMQG1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WEX_PYPUflZlAhMM7l2zaLx_3YqWMQG1/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>41f841b3d8bcce434eaf60a2bfb3c31e</t>
+  </si>
+  <si>
+    <t>coverage-frag-180-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1EZiEEPFmA1WoRxYxDE5YlhFv6KNTRgC0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EZiEEPFmA1WoRxYxDE5YlhFv6KNTRgC0/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>67a66a90fdfe44bfe34efa4582df60fc</t>
+  </si>
+  <si>
+    <t>coverage-frag-179-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1u4-98YUHVf4pS0UaDEu8t7bMEOui89tm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1u4-98YUHVf4pS0UaDEu8t7bMEOui89tm/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>16063a2c453b92df906e9964eb1438e3</t>
+  </si>
+  <si>
+    <t>coverage-frag-178-year-1992.tif</t>
+  </si>
+  <si>
+    <t>10WEQoFK49hbHzHbXayTHY6Q9TtPUpm0f</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10WEQoFK49hbHzHbXayTHY6Q9TtPUpm0f/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>f74f09f56795c12b0f0835f65f2a87c1</t>
+  </si>
+  <si>
+    <t>coverage-frag-177-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1i6N5l-blNRQKWD2ZGMN-5qUE9dVloLRD</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1i6N5l-blNRQKWD2ZGMN-5qUE9dVloLRD/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>ab346a1163c63987664deff62fa00851</t>
+  </si>
+  <si>
+    <t>coverage-frag-176-year-1992.tif</t>
+  </si>
+  <si>
+    <t>15Oh3xXUNfOeDAlcydxCvyBi2Xe70arjX</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15Oh3xXUNfOeDAlcydxCvyBi2Xe70arjX/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>d8f185b35f56eed161277b324492ab7c</t>
+  </si>
+  <si>
+    <t>coverage-frag-175-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1PTjm8wV02r8hzU7toO6PIplO6mWRk7jK</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PTjm8wV02r8hzU7toO6PIplO6mWRk7jK/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>53c6028d20bcb07c28fda85fd30d4e53</t>
+  </si>
+  <si>
+    <t>coverage-frag-173-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1ZKH01QJY-xCQILO7XUxlqVVv-XbeCiC0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZKH01QJY-xCQILO7XUxlqVVv-XbeCiC0/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>4a29e85fab3c28fae0ef9d3bb1d82666</t>
+  </si>
+  <si>
+    <t>coverage-frag-171-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1H1h3HwGM7u7Xfy01TsolbN27zR2rK0zN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1H1h3HwGM7u7Xfy01TsolbN27zR2rK0zN/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>1d028ee7ca5d638de7e99968160a09e6</t>
+  </si>
+  <si>
+    <t>coverage-frag-170-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1GDW9upO1B-azwtl56JCxo__9guBl0OwV</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GDW9upO1B-azwtl56JCxo__9guBl0OwV/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>1c62f8b3f08c50b3847026168e95e36f</t>
+  </si>
+  <si>
+    <t>coverage-frag-169-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1jxMKleYniJH7PiyhycbjrFgWtUGKStkz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jxMKleYniJH7PiyhycbjrFgWtUGKStkz/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>54d3f52aead2cd8973aa7dd0e8b6cbc5</t>
+  </si>
+  <si>
+    <t>coverage-frag-168-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1NQO4qkqlPtAH5y1JxZxaHYvQCn3WjNP0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NQO4qkqlPtAH5y1JxZxaHYvQCn3WjNP0/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>b8002f48c310a06f43cc7185f3090b4e</t>
+  </si>
+  <si>
+    <t>coverage-frag-167-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1jt1Z_hdcybQAd6a8gJz60SU3SW24qL1k</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jt1Z_hdcybQAd6a8gJz60SU3SW24qL1k/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>c393aa104919e83e2daae619a1918972</t>
+  </si>
+  <si>
+    <t>coverage-frag-166-year-1992.tif</t>
+  </si>
+  <si>
+    <t>19umS8svl415zT5m5zg9iqrutpU76Iauc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19umS8svl415zT5m5zg9iqrutpU76Iauc/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>ce7ba45636893a304dc26d343622565e</t>
+  </si>
+  <si>
+    <t>coverage-frag-165-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1MTXzZIuuyD2R4TBNMt9wyMvSkeftN5eE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MTXzZIuuyD2R4TBNMt9wyMvSkeftN5eE/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>e15b86fe86e083153107ba9bf882f8fa</t>
+  </si>
+  <si>
+    <t>coverage-frag-164-year-1992.tif</t>
+  </si>
+  <si>
+    <t>10CCX8ZWfzGP8uulVFCH4H5AZWsBT2nbK</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10CCX8ZWfzGP8uulVFCH4H5AZWsBT2nbK/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>032260f3e3da53cf8d10e1262bdb0232</t>
+  </si>
+  <si>
+    <t>coverage-frag-163-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1v_O1Av-pOOe_aeyl_F8_7MbvdgyKFEKL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1v_O1Av-pOOe_aeyl_F8_7MbvdgyKFEKL/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>a4ff1d61992905515f2e17945a19c2a4</t>
+  </si>
+  <si>
+    <t>coverage-frag-162-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1DpWvGPV1GlBq-Us9H1ZALyiHeVNEm5iq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DpWvGPV1GlBq-Us9H1ZALyiHeVNEm5iq/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>effb584882376a5d0483aebb25c1b8a7</t>
+  </si>
+  <si>
+    <t>coverage-frag-161-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1wIjB6q_SCHJE-Pq1E6pJwx_TfSfNDPZ4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wIjB6q_SCHJE-Pq1E6pJwx_TfSfNDPZ4/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>6dbb342bb921b6c9c9ad6377779d531c</t>
+  </si>
+  <si>
+    <t>coverage-frag-158-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1f7ObVXILUkW49jOUYxNwNNY_rlpPvxMw</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1f7ObVXILUkW49jOUYxNwNNY_rlpPvxMw/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>a51a8f5e1eb7352845dc544cb7302f30</t>
+  </si>
+  <si>
+    <t>coverage-frag-157-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1YBApq2eGllaGC5fNtbl0oh3QWglfm9J7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YBApq2eGllaGC5fNtbl0oh3QWglfm9J7/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>39159fc488423033ef39b5c3898f00b2</t>
+  </si>
+  <si>
+    <t>coverage-frag-156-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1TR9ob4rxr7SHdS23RohcMHnX3QkULiSW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TR9ob4rxr7SHdS23RohcMHnX3QkULiSW/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>7fe13d48b4e2e40518b4266cb2d0e1f2</t>
+  </si>
+  <si>
+    <t>coverage-frag-155-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1pX56LPqSeh74KTUe7jqx4ZsPA-RbN3y7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pX56LPqSeh74KTUe7jqx4ZsPA-RbN3y7/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>0a8bd6b91e575825a223946146144f78</t>
+  </si>
+  <si>
+    <t>coverage-frag-154-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1BvkZwk507VC7pTUYVsWkTUuJjHjgAuPD</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BvkZwk507VC7pTUYVsWkTUuJjHjgAuPD/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>a30037f43637aec5a7c085451a3a2dd9</t>
+  </si>
+  <si>
+    <t>coverage-frag-153-year-1992.tif</t>
+  </si>
+  <si>
+    <t>120Bpb31AavKtp3KQQ9Mj5VGmbSmj1Whh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/120Bpb31AavKtp3KQQ9Mj5VGmbSmj1Whh/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>8d89f74dddf5e1cd772fcc14ae6897e7</t>
+  </si>
+  <si>
+    <t>coverage-frag-152-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1PyO_Ojsx9mYuQVi4002dGeQOxnjnDVrQ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PyO_Ojsx9mYuQVi4002dGeQOxnjnDVrQ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>7b3c2d4fcbb1861c3eef5ed203e46825</t>
+  </si>
+  <si>
+    <t>coverage-frag-151-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1MQmwCKbzjPeNhDaH6K7c-_pDTGgEtZ8f</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MQmwCKbzjPeNhDaH6K7c-_pDTGgEtZ8f/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>fccf73876a9e796b9b9bd01b0dcee50e</t>
+  </si>
+  <si>
+    <t>coverage-frag-150-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1ZtxuRuYfI2R_NPSeRG0XRkp_2gzkBm-y</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZtxuRuYfI2R_NPSeRG0XRkp_2gzkBm-y/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>a5dce211d435508881dfd9a9ea9b25de</t>
+  </si>
+  <si>
+    <t>coverage-frag-148-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1XUTk3LFUvC4kkrBl7S7SUj9v4n-p9euJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XUTk3LFUvC4kkrBl7S7SUj9v4n-p9euJ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>fd4d57d85c4f272f26177da36e56d38b</t>
+  </si>
+  <si>
+    <t>coverage-frag-145-year-1992.tif</t>
+  </si>
+  <si>
+    <t>11TX-5JczwihBytjejB1aAHzsdaBvSrsK</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11TX-5JczwihBytjejB1aAHzsdaBvSrsK/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>4a2c42a5278013afab4737fe3551aeec</t>
+  </si>
+  <si>
+    <t>coverage-frag-144-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1jrFPGkL9BjYEe6AAdFDB_HwIrUJw_i_t</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jrFPGkL9BjYEe6AAdFDB_HwIrUJw_i_t/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>555f8b4c754c2a4f09c9be53ca34bf95</t>
+  </si>
+  <si>
+    <t>coverage-frag-143-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1HRTjn_68CfhkaYVLUQy1saowDbyU26rl</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HRTjn_68CfhkaYVLUQy1saowDbyU26rl/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>7d1296993d528b08909ced6b526fb03a</t>
+  </si>
+  <si>
+    <t>coverage-frag-142-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1WZcdb5_5_-jAvjWjPisrbrMdgeepALJF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WZcdb5_5_-jAvjWjPisrbrMdgeepALJF/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>1c483d20742d45a3dc90bc8393c1f9e7</t>
+  </si>
+  <si>
+    <t>coverage-frag-141-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1oOBzKEFjgxhGzZ4ZQ9EymPne8N1YAfYl</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oOBzKEFjgxhGzZ4ZQ9EymPne8N1YAfYl/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>2d8cc21bb4c67b7a23d7d7e88dc89fa4</t>
+  </si>
+  <si>
+    <t>coverage-frag-140-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1gwk-ScXKOeiGG6DLdEEfAM3LirBdEYKA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gwk-ScXKOeiGG6DLdEEfAM3LirBdEYKA/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>f52bbc6e0f4264fd80f7a5aacdbc345f</t>
+  </si>
+  <si>
+    <t>coverage-frag-139-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1tbZyuZl_wYh5bUEdI-dg6KfV_QrL0Mlh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tbZyuZl_wYh5bUEdI-dg6KfV_QrL0Mlh/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>095dd77569c603b4e615d1f6b82af361</t>
+  </si>
+  <si>
+    <t>coverage-frag-137-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1tz9t5cOeqMHx_V7SX4RFvHhM20SdDgKI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tz9t5cOeqMHx_V7SX4RFvHhM20SdDgKI/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>008f74e490344139f2d08d2c55d4165c</t>
+  </si>
+  <si>
+    <t>coverage-frag-136-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1A0B03zCgcahvxT7NiJNxjPWbQ1zn1xMQ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1A0B03zCgcahvxT7NiJNxjPWbQ1zn1xMQ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>0799309f562fc251816b385d97a1a19d</t>
+  </si>
+  <si>
+    <t>coverage-frag-135-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1psJrtoR_q2Fnj-o2xrLYkGtY7hOuGWrT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1psJrtoR_q2Fnj-o2xrLYkGtY7hOuGWrT/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>37cc9dd4a6e1f254a8e3313dd511548a</t>
+  </si>
+  <si>
+    <t>coverage-frag-134-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1IA5pW6nv19mNA5mswrq25CsHjJtvDu_e</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IA5pW6nv19mNA5mswrq25CsHjJtvDu_e/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>4f2af991107a7258e0217616d94549dc</t>
+  </si>
+  <si>
+    <t>coverage-frag-133-year-1992.tif</t>
+  </si>
+  <si>
+    <t>17ZCN9Gt4aarQhayGJ6n4-aigP_uTxvVY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17ZCN9Gt4aarQhayGJ6n4-aigP_uTxvVY/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>891a660f542ab2e61641a69e57a15790</t>
+  </si>
+  <si>
+    <t>coverage-frag-132-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1kOb8kYWSjP0ThYkEGXuSCe8DvqClIZ2R</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kOb8kYWSjP0ThYkEGXuSCe8DvqClIZ2R/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>6159fcb4aa874bce38d7a4bd2b6bf361</t>
+  </si>
+  <si>
+    <t>coverage-frag-131-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1M1d72byL2zm3QFBv-IAtJizulDHg_k0r</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1M1d72byL2zm3QFBv-IAtJizulDHg_k0r/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>8f0d4d9e26c3170b686546b6a35c159e</t>
+  </si>
+  <si>
+    <t>coverage-frag-130-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1_9Usa6dveB1lXkAGSPT9KpYwlsai8MFr</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_9Usa6dveB1lXkAGSPT9KpYwlsai8MFr/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>75f3fc134d2b747bd2ebd1caf53252c1</t>
+  </si>
+  <si>
+    <t>coverage-frag-129-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1lN2tYSaqwB_eEcNon5MdTbBlUuFC6tWF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lN2tYSaqwB_eEcNon5MdTbBlUuFC6tWF/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>9625b64176e78dc2454c5ba68b62343b</t>
+  </si>
+  <si>
+    <t>coverage-frag-128-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1js37oB6YWgZVQrkr4g24X-KiDVXEqvVp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1js37oB6YWgZVQrkr4g24X-KiDVXEqvVp/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>257555834758b9261586b0ac42bebab0</t>
+  </si>
+  <si>
+    <t>coverage-frag-126-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1NUyb7YSZoXLhrATxaMC9EbvxyPYVJI_Z</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NUyb7YSZoXLhrATxaMC9EbvxyPYVJI_Z/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>c57b943a89b6170ec66f30d1d3000280</t>
+  </si>
+  <si>
+    <t>coverage-frag-125-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1O7kVn5go5noDcjADCHllrgbDXypN7IrI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1O7kVn5go5noDcjADCHllrgbDXypN7IrI/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>fd59a5c67c86abd2ad7aeb5e344f0369</t>
+  </si>
+  <si>
+    <t>coverage-frag-122-year-1992.tif</t>
+  </si>
+  <si>
+    <t>19KkewbNvGahLHu4InBD0RcDDtEeObKHj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19KkewbNvGahLHu4InBD0RcDDtEeObKHj/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>61cb3c6c12895ce02a13bd4fe91a4833</t>
+  </si>
+  <si>
+    <t>coverage-frag-121-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1Ir2WN6cPalkOqa01fpdJB9r5jSXLMZBv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ir2WN6cPalkOqa01fpdJB9r5jSXLMZBv/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>643e30070bb0cce446bd282d4637dc3a</t>
+  </si>
+  <si>
+    <t>coverage-frag-120-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1DSTybxvRIRRMzOwsrtFTxgR2p7ImPEY4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DSTybxvRIRRMzOwsrtFTxgR2p7ImPEY4/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>af8a1671a7184511b82f0a313ae86f46</t>
+  </si>
+  <si>
+    <t>coverage-frag-118-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1v3zQEOdmVWCGfIRSx8S3nYWjSWr04Oc0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1v3zQEOdmVWCGfIRSx8S3nYWjSWr04Oc0/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>fa11bcc30cb41e25c3ee124f96c25420</t>
+  </si>
+  <si>
+    <t>coverage-frag-117-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1GR-E1vxx5NbNNBY_mVQUYRshLFkvET9C</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GR-E1vxx5NbNNBY_mVQUYRshLFkvET9C/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>035427d5e05ceeabf53cc95380883566</t>
+  </si>
+  <si>
+    <t>coverage-frag-116-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1UfRhgI4wXT5Gn365oLDjz3MLb5aJhV25</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UfRhgI4wXT5Gn365oLDjz3MLb5aJhV25/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>6732f2d8fde465f289c872ce3932ece3</t>
+  </si>
+  <si>
+    <t>coverage-frag-115-year-1992.tif</t>
+  </si>
+  <si>
+    <t>14OVjrCHZzTcCbpHH3lvlpWfdPm-NxGEX</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14OVjrCHZzTcCbpHH3lvlpWfdPm-NxGEX/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>4a06ebde28d45eb46da6581c79dfb266</t>
+  </si>
+  <si>
+    <t>coverage-frag-114-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1gfiOOk2ZorBkSf0awpyiqmJs6oHuuQIx</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gfiOOk2ZorBkSf0awpyiqmJs6oHuuQIx/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>9d3a136f938489ab59c9a8a2eb56031b</t>
+  </si>
+  <si>
+    <t>coverage-frag-112-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1k_vKu8kNFddHZiOpV3koQtQX1nKWfAk_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1k_vKu8kNFddHZiOpV3koQtQX1nKWfAk_/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>93839a524c83bcf269d943361453756e</t>
+  </si>
+  <si>
+    <t>coverage-frag-111-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1JS5pKwO6xG_BdyHvg9oYay7h_OqbXPl2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JS5pKwO6xG_BdyHvg9oYay7h_OqbXPl2/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>4b3e15a1e8b16f219859364d1d9cdaff</t>
+  </si>
+  <si>
+    <t>coverage-frag-110-year-1992.tif</t>
+  </si>
+  <si>
+    <t>10tco-Xh1-V3sJYkbZOLLsBYC1tVDqMkj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10tco-Xh1-V3sJYkbZOLLsBYC1tVDqMkj/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>33e0f1ad7240880564f279cdb97480af</t>
+  </si>
+  <si>
+    <t>coverage-frag-108-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1CX0hGeNEHRzH1c1XmWuPu0GSWAIbrRQV</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CX0hGeNEHRzH1c1XmWuPu0GSWAIbrRQV/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>4bac1ba7f50dd95c92f8208d919e95e4</t>
+  </si>
+  <si>
+    <t>coverage-frag-107-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1y-zewfyMBpaTOzOd4Y2BtiwAVqHSNz0W</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1y-zewfyMBpaTOzOd4Y2BtiwAVqHSNz0W/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>eb2fb26e8c471abdd315a2b6eeee4c1e</t>
+  </si>
+  <si>
+    <t>coverage-frag-106-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1TQLHuKaGf9frKQXxGy1eGzHDZNDAnKTU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TQLHuKaGf9frKQXxGy1eGzHDZNDAnKTU/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>77f9506a79d04b55b70a8b033cf7ca2b</t>
+  </si>
+  <si>
+    <t>coverage-frag-105-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1Nhdgl-LMfRIX84YsxR3RcAptQh2MaVi5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Nhdgl-LMfRIX84YsxR3RcAptQh2MaVi5/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>8bc7b2309ed8fc18928c2a40afcaad73</t>
+  </si>
+  <si>
+    <t>coverage-frag-104-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1JwIjmAJeAIJosbDByONZJablCU67hzPd</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JwIjmAJeAIJosbDByONZJablCU67hzPd/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>2e07f1e76bfbd4a5602d3e5cc7f2e062</t>
+  </si>
+  <si>
+    <t>coverage-frag-103-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1PfYRT2N8DzVPdfsRNjB5Ecq-CZUtOc54</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PfYRT2N8DzVPdfsRNjB5Ecq-CZUtOc54/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>a3340d5a703cf66f7e44d40147e85c1f</t>
+  </si>
+  <si>
+    <t>coverage-frag-102-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1nTk3zVId-KO6u1q9WM59PfZ0m4FSh_os</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nTk3zVId-KO6u1q9WM59PfZ0m4FSh_os/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>ceb04d73ecc3349e0802db0702d057d2</t>
+  </si>
+  <si>
+    <t>coverage-frag-101-year-1992.tif</t>
+  </si>
+  <si>
+    <t>11X03ZkqOD-LVKpMvcfPRZJnkfOxs0eO5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11X03ZkqOD-LVKpMvcfPRZJnkfOxs0eO5/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>55a85e0137f715ccb10e42fc7854533f</t>
+  </si>
+  <si>
+    <t>coverage-frag-97-year-1992.tif</t>
+  </si>
+  <si>
+    <t>13jrPMXGa3HLimb9srMtBNH8XdYxncMpx</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13jrPMXGa3HLimb9srMtBNH8XdYxncMpx/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>bb92c2843d272c27b9656932cc880262</t>
+  </si>
+  <si>
+    <t>coverage-frag-95-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1DeXKKx0Zyjfl2iYQIsa7iFe57ulXtLSL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DeXKKx0Zyjfl2iYQIsa7iFe57ulXtLSL/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>d50702a9e2cebc5a9dedfb0f1dfd907f</t>
+  </si>
+  <si>
+    <t>coverage-frag-94-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1WigR4Y4INJqg_yNO10M1malLpnCx8vhF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WigR4Y4INJqg_yNO10M1malLpnCx8vhF/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>0c818577df26c5096bb54ec26e294143</t>
+  </si>
+  <si>
+    <t>coverage-frag-93-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1CD3BpKRcY-OXKC-xQdBLI3n-vBNXDm3L</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CD3BpKRcY-OXKC-xQdBLI3n-vBNXDm3L/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>5f3146c2f12cc3040b8d3b1e4c2142e2</t>
+  </si>
+  <si>
+    <t>coverage-frag-92-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1TMx89JelXNDS2ii2v5zVkP79GxCtB09T</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TMx89JelXNDS2ii2v5zVkP79GxCtB09T/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>424d5833046ec61b2394c03216264afd</t>
+  </si>
+  <si>
+    <t>coverage-frag-91-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1IYK1lXRfxPR2IF4BwI0rc_Rmj81PAZ3z</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IYK1lXRfxPR2IF4BwI0rc_Rmj81PAZ3z/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>283255a7c2050d576c8e04401c9ae3e9</t>
+  </si>
+  <si>
+    <t>coverage-frag-90-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1aG0uaTBxq01t8pu8SnU8wqSV-gVkEc1A</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aG0uaTBxq01t8pu8SnU8wqSV-gVkEc1A/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>61b2e6c68c69520ccd5684d3dae18267</t>
+  </si>
+  <si>
+    <t>coverage-frag-89-year-1992.tif</t>
+  </si>
+  <si>
+    <t>16pG3_qM17mvKzzI-7EZAjj1A-oGZDVpJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16pG3_qM17mvKzzI-7EZAjj1A-oGZDVpJ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>24d0a1571f0fa011da3ae643cdc065c0</t>
+  </si>
+  <si>
+    <t>coverage-frag-87-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1kGyu_8q0yBQRaszWpqnRttxbEQ79rE78</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kGyu_8q0yBQRaszWpqnRttxbEQ79rE78/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>57fad9c2495de41dfee3767afb2c9505</t>
+  </si>
+  <si>
+    <t>coverage-frag-86-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1Kz7YcBTLi2UFXoMlz-Ab2zAxFLbRZEFb</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Kz7YcBTLi2UFXoMlz-Ab2zAxFLbRZEFb/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>ce7c41d887fe3b5945d0208aa8c5a71c</t>
+  </si>
+  <si>
+    <t>coverage-frag-85-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1fskViGZuUUMigo2KtbB2wSdyNONrZc1p</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fskViGZuUUMigo2KtbB2wSdyNONrZc1p/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>6d24d509d8b88fad297c40e66e3c4eca</t>
+  </si>
+  <si>
+    <t>coverage-frag-84-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1ghYqQo-v7cWwcjS6H63LKJiDOaQJqF5Y</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ghYqQo-v7cWwcjS6H63LKJiDOaQJqF5Y/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>7aee7c5f6fe11e990978efb5c9fdd902</t>
+  </si>
+  <si>
+    <t>coverage-frag-81-year-1992.tif</t>
+  </si>
+  <si>
+    <t>165QkPPDUzaK2KC8lHD5wTYZtAyKBCi2X</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/165QkPPDUzaK2KC8lHD5wTYZtAyKBCi2X/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>7310836c7fc732b53480bb3afb118a13</t>
+  </si>
+  <si>
+    <t>coverage-frag-80-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1qKZTce6afmXA1LQzaQNWoZFjeW-2RPlx</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qKZTce6afmXA1LQzaQNWoZFjeW-2RPlx/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>5b8a86fff7f67c6d416cb09562bc61b5</t>
+  </si>
+  <si>
+    <t>coverage-frag-79-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1p_Q1UpIjftDoKWq8qwdCKsE7Gb4MKhmP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1p_Q1UpIjftDoKWq8qwdCKsE7Gb4MKhmP/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>7da4c316f10dc357d9232b880b3a4a30</t>
+  </si>
+  <si>
+    <t>coverage-frag-78-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1gfnRMwD-FJTAfLbCtbgqlz23P5zroDML</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gfnRMwD-FJTAfLbCtbgqlz23P5zroDML/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>989848b260763bdb2b1cd038ca5b6776</t>
+  </si>
+  <si>
+    <t>coverage-frag-77-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1YrjZvLD1mRtCr8fTFACL_v5s6mbZdeZY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YrjZvLD1mRtCr8fTFACL_v5s6mbZdeZY/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>531b045de79ae3446932fb1aec4d0ef8</t>
+  </si>
+  <si>
+    <t>coverage-frag-76-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1eoTfMKYOCr4Ww9yqiY6CY8W9roBcX85z</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eoTfMKYOCr4Ww9yqiY6CY8W9roBcX85z/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>b0d7a52fc03f9ba09a0076e6e392046f</t>
+  </si>
+  <si>
+    <t>coverage-frag-75-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1M52MqnePz-0_JW_AwqAaNmGBto1YZWIj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1M52MqnePz-0_JW_AwqAaNmGBto1YZWIj/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>29c312ccd022f961f8780baafe06c10c</t>
+  </si>
+  <si>
+    <t>coverage-frag-74-year-1992.tif</t>
+  </si>
+  <si>
+    <t>183MUVJWpQ88fQKt3MCX5wjFioFCW5kAC</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/183MUVJWpQ88fQKt3MCX5wjFioFCW5kAC/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>774b8050cd9d228546cf6d63d8a5692c</t>
+  </si>
+  <si>
+    <t>coverage-frag-72-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1XaC31Rh-bXevRLgvxDM5zUhkuc1KtHHD</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XaC31Rh-bXevRLgvxDM5zUhkuc1KtHHD/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>ec066b5002c557407f23ffedb930cb6a</t>
+  </si>
+  <si>
+    <t>coverage-frag-68-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1vR7-FugZyYGwGD_kbIyrF1y9qxqZKkOq</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vR7-FugZyYGwGD_kbIyrF1y9qxqZKkOq/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>7147cc119aa092c12edb061c7e524a4f</t>
+  </si>
+  <si>
+    <t>coverage-frag-66-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1-RxhNqQxzTcd3vU2LYi2j1NSmuelu5BE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-RxhNqQxzTcd3vU2LYi2j1NSmuelu5BE/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>70f15703ff21f1c57fb1868892bacf9c</t>
+  </si>
+  <si>
+    <t>coverage-frag-65-year-1992.tif</t>
+  </si>
+  <si>
+    <t>110KoKQTfcnT36as6qzg5BATWv0pua7Br</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/110KoKQTfcnT36as6qzg5BATWv0pua7Br/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>9437221b0ecc0ae24057059b39e4ad77</t>
+  </si>
+  <si>
+    <t>coverage-frag-64-year-1992.tif</t>
+  </si>
+  <si>
+    <t>11hhTL00jZJY_EmwgCYfAIag87ZXyT3fc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11hhTL00jZJY_EmwgCYfAIag87ZXyT3fc/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>45ec5223ac32e6a586918216458213c2</t>
+  </si>
+  <si>
+    <t>coverage-frag-63-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1es03-FuWTY12J3zohTLnK4nFZ_WG1Lml</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1es03-FuWTY12J3zohTLnK4nFZ_WG1Lml/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>82d5335471563dd83a144bc94829a3b3</t>
+  </si>
+  <si>
+    <t>coverage-frag-62-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1TP9f_rNnkwSoDuD-EQdjoA9gQdjISpMs</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TP9f_rNnkwSoDuD-EQdjoA9gQdjISpMs/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>2c107d1558d229cfbe29bae55f065819</t>
+  </si>
+  <si>
+    <t>coverage-frag-61-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1uiFpFHM8twTLp6VUoxkxr-hY_CYe85Jp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uiFpFHM8twTLp6VUoxkxr-hY_CYe85Jp/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>db4574bcb2da9554db8b36e3a95611f8</t>
+  </si>
+  <si>
+    <t>coverage-frag-59-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1pWx2b0bqKy2QAkyWKYewbvLI0k4aOD5L</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pWx2b0bqKy2QAkyWKYewbvLI0k4aOD5L/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>0ae41fd9aae803e428ab226af8a625a4</t>
+  </si>
+  <si>
+    <t>coverage-frag-58-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1mopiOjLklHUwzCUkVSrxX6W_XAtMtAHf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mopiOjLklHUwzCUkVSrxX6W_XAtMtAHf/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>36888be565330e6692d157a1bb387bf2</t>
+  </si>
+  <si>
+    <t>coverage-frag-57-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1DkrmLvevRgtsJoGlVRzgsuNuX0-3LK94</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DkrmLvevRgtsJoGlVRzgsuNuX0-3LK94/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>703885c276f44779ba3d2b49e72abd0a</t>
+  </si>
+  <si>
+    <t>coverage-frag-56-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1DvPUyis8lSM-5k6Z6JTaz_zCvGUddONe</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DvPUyis8lSM-5k6Z6JTaz_zCvGUddONe/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>2e8f736923d45d1e1c4ac384e1a9c5af</t>
+  </si>
+  <si>
+    <t>coverage-frag-55-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1DWKFCaBaHS_bTpEr1cNg6S0fESSX5D9G</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DWKFCaBaHS_bTpEr1cNg6S0fESSX5D9G/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>68a807e7f80cbfa1ea28e6f8c66b2991</t>
+  </si>
+  <si>
+    <t>coverage-frag-54-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1Pgf47n3KmShCYn15pe03Y-5LcUPf9n0b</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Pgf47n3KmShCYn15pe03Y-5LcUPf9n0b/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>cd49d421fffbecec4a1f2cd468461300</t>
+  </si>
+  <si>
+    <t>coverage-frag-53-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1BY_qmJoRf8ciN1gsfgFFsnqWmtmy7Ysn</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BY_qmJoRf8ciN1gsfgFFsnqWmtmy7Ysn/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>057653a9eaefbd8823f04b4857bbdd56</t>
+  </si>
+  <si>
+    <t>coverage-frag-52-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1gPHqrXptnCi_ehr1yLkpVG1qtXHU6-Iv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gPHqrXptnCi_ehr1yLkpVG1qtXHU6-Iv/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>c4b467fb621e7b0cc73a32b7b7f798a0</t>
+  </si>
+  <si>
+    <t>coverage-frag-49-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1NwVcug-sV8g14m7wFlIcG99r69KJAKoA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NwVcug-sV8g14m7wFlIcG99r69KJAKoA/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>88209f8a5a110fba6e30d9dfc1592951</t>
+  </si>
+  <si>
+    <t>coverage-frag-48-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1WrfEkAe7dCAjXDJHVuEhrwk19zy2ffue</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WrfEkAe7dCAjXDJHVuEhrwk19zy2ffue/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>090be3f55754e71e97e60cd0d0d2960f</t>
+  </si>
+  <si>
+    <t>coverage-frag-46-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1T2ZPmN5emYSTYgcpJERUAs-73YWS5lre</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1T2ZPmN5emYSTYgcpJERUAs-73YWS5lre/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>123e0a118dd65fba47e9719eaa3207d2</t>
+  </si>
+  <si>
+    <t>coverage-frag-45-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1nETaT03k6BpQ9RXnH_O74PRJupcZRYX9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nETaT03k6BpQ9RXnH_O74PRJupcZRYX9/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>edbb68376054fa6ebc6a93e32c160676</t>
+  </si>
+  <si>
+    <t>coverage-frag-44-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1ydwqRQ1IG9GNcgWBBZ71KnfFxJVCowZm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ydwqRQ1IG9GNcgWBBZ71KnfFxJVCowZm/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>8a35b9bc5dca692121ceaaf849640c07</t>
+  </si>
+  <si>
+    <t>coverage-frag-43-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1OR3w4QS8d_RgltyzdNlp_jAM0AQoHtB-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OR3w4QS8d_RgltyzdNlp_jAM0AQoHtB-/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>86ce97edde4146d303f0f7d98332c749</t>
+  </si>
+  <si>
+    <t>coverage-frag-42-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1S_fl6yT8pa6ii_QnizAcsuQOl-zFGQwt</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1S_fl6yT8pa6ii_QnizAcsuQOl-zFGQwt/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>4aa006801e7ede9cb4214eb261dab1ed</t>
+  </si>
+  <si>
+    <t>coverage-frag-41-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1QCcXpyQ1Zr0YCYInq2eFWO8we_zv6aOj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QCcXpyQ1Zr0YCYInq2eFWO8we_zv6aOj/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>c350a84a3afa3d347c9d8b3f59889627</t>
+  </si>
+  <si>
+    <t>coverage-frag-38-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1GT3ehEbC-14Zk07xFZq1eXrSVh7QeR1I</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GT3ehEbC-14Zk07xFZq1eXrSVh7QeR1I/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>88b955416484caac47fbadf1f92b7974</t>
+  </si>
+  <si>
+    <t>coverage-frag-37-year-1992.tif</t>
+  </si>
+  <si>
+    <t>133IU25psk_tfReTE5Ip2DbPbLiNTVBd-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/133IU25psk_tfReTE5Ip2DbPbLiNTVBd-/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>7091a00ae4bb6f1fcaaf0c6ee11c7b69</t>
+  </si>
+  <si>
+    <t>coverage-frag-36-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1Su-SUoNgilF1UnrmVq8B6MkolMFEDkgZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Su-SUoNgilF1UnrmVq8B6MkolMFEDkgZ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>d7472e7b20257a594b154bc6ae136437</t>
+  </si>
+  <si>
+    <t>coverage-frag-35-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1A_1thmTK9U72pt6y1gEdwqNv2xrn-EMU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1A_1thmTK9U72pt6y1gEdwqNv2xrn-EMU/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>6696ee810da1b376cbd7f253c74a5c80</t>
+  </si>
+  <si>
+    <t>coverage-frag-34-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1NPDCc6Zj4BW8HKI7JEYt9OCFmgBYVMlc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NPDCc6Zj4BW8HKI7JEYt9OCFmgBYVMlc/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>8f0916345d752bf9fc3b4f26537d10d7</t>
+  </si>
+  <si>
+    <t>coverage-frag-33-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1vozRvgh7-BejIJWbvey9Bi9Kfbm-1W-q</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vozRvgh7-BejIJWbvey9Bi9Kfbm-1W-q/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>6cd3f09e947bad2da8640c1eb9fb0481</t>
+  </si>
+  <si>
+    <t>coverage-frag-32-year-1992.tif</t>
+  </si>
+  <si>
+    <t>15KqeQogZTOT_dKfjBSWAunH1XocgxNEm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15KqeQogZTOT_dKfjBSWAunH1XocgxNEm/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>1798e18429aa1876da0957cddf79c629</t>
+  </si>
+  <si>
+    <t>coverage-frag-31-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1-CFFOXqn2h2uodI9q49cGy5ss2K9uKBY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-CFFOXqn2h2uodI9q49cGy5ss2K9uKBY/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>78786d079f66ce8a2496f93ae01390f3</t>
+  </si>
+  <si>
+    <t>coverage-frag-30-year-1992.tif</t>
+  </si>
+  <si>
+    <t>13PObH2f2O62s1TCHl3lz9ezDL6HqsNZS</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13PObH2f2O62s1TCHl3lz9ezDL6HqsNZS/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>66bd6f778fd709dccf7cca069e02a98c</t>
+  </si>
+  <si>
+    <t>coverage-frag-28-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1Mc7p0imKbjQ0qpkxgJ1um_MpB6co1rWQ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Mc7p0imKbjQ0qpkxgJ1um_MpB6co1rWQ/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>9544785fd934fc4ef4ebc5402b9c3d5f</t>
+  </si>
+  <si>
+    <t>coverage-frag-27-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1wL4zj4qhEJrhq13UPq5dfLNAiKzwcpBg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wL4zj4qhEJrhq13UPq5dfLNAiKzwcpBg/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>090ff7fdd55537fb7290a2138aa7b123</t>
+  </si>
+  <si>
+    <t>coverage-frag-26-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1sqjNrqPztPqGa375W4GuzqY5HxLljJ_X</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sqjNrqPztPqGa375W4GuzqY5HxLljJ_X/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>d8b93b88fa503a87f68a09eb713e46eb</t>
+  </si>
+  <si>
+    <t>coverage-frag-25-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1DT_PP6a_YSJF6CKEfPag6AkNJC-N3p1E</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DT_PP6a_YSJF6CKEfPag6AkNJC-N3p1E/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>bd78e806cbc997a521e3adf7b8617523</t>
+  </si>
+  <si>
+    <t>coverage-frag-24-year-1992.tif</t>
+  </si>
+  <si>
+    <t>11U6DfRxyu599xkmXn_a35N2RIRXTjfqC</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11U6DfRxyu599xkmXn_a35N2RIRXTjfqC/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>392281388f509452d7769aed22461243</t>
+  </si>
+  <si>
+    <t>coverage-frag-23-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1IuYv-yY9dVq5YKh7NikykeU8On2nLxLV</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IuYv-yY9dVq5YKh7NikykeU8On2nLxLV/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>c009c10d5221ed4b4a25ffa9641c90a8</t>
+  </si>
+  <si>
+    <t>coverage-frag-22-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1hPtWywMP9NqXoERYqGvNV1D8M6IQj-_0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hPtWywMP9NqXoERYqGvNV1D8M6IQj-_0/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>7a8d88bb6dad927501b425cdb63a4d86</t>
+  </si>
+  <si>
+    <t>coverage-frag-21-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1hdmioEPxTukb0SYjTQ-03MnK5HlxxMhN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hdmioEPxTukb0SYjTQ-03MnK5HlxxMhN/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>a603827042c231e9ac30cd052574dcb7</t>
+  </si>
+  <si>
+    <t>coverage-frag-18-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1VJmEaN7aFKthZFQflrXHUGUI-us9wVe1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VJmEaN7aFKthZFQflrXHUGUI-us9wVe1/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>6307080b37a11e6a9f549092b907b5a3</t>
+  </si>
+  <si>
+    <t>coverage-frag-17-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1EDEeN8ykUAxsdzkPG8YsacYNvl-hFpXp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EDEeN8ykUAxsdzkPG8YsacYNvl-hFpXp/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>702547d46b3e131e8e9ac9ae89c7ec3e</t>
+  </si>
+  <si>
+    <t>coverage-frag-16-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1o88g8Du3DKM5y-qSUGFyUb_BQBFK8Lyu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1o88g8Du3DKM5y-qSUGFyUb_BQBFK8Lyu/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>845bcc76d878202128f7b46254a6e187</t>
+  </si>
+  <si>
+    <t>coverage-frag-15-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1eQZ6EKmW1E8P4I1defbgpsVECkNRR013</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eQZ6EKmW1E8P4I1defbgpsVECkNRR013/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>c0c5ed2ca6a3bb4b7aa447d7d31f3a5f</t>
+  </si>
+  <si>
+    <t>coverage-frag-14-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1eauZQF3Ii1HEsTmb6AXFLUsMpgnI2gT5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eauZQF3Ii1HEsTmb6AXFLUsMpgnI2gT5/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>14fb037f269724ea6783311bc4213352</t>
+  </si>
+  <si>
+    <t>coverage-frag-13-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1WpDsT8sYeGWY9A7-7jJpXh_6_LUTFo0G</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WpDsT8sYeGWY9A7-7jJpXh_6_LUTFo0G/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>8a17ad836dda649849b4abd6a264f278</t>
+  </si>
+  <si>
+    <t>coverage-frag-12-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1HbdEVCAUlOUIi_J4-XmbUqPW_W-7MtDT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HbdEVCAUlOUIi_J4-XmbUqPW_W-7MtDT/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>e7449d175c6da3c171af93ba781c99b9</t>
+  </si>
+  <si>
+    <t>coverage-frag-11-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1_XVKsDAUlwO-O6D8EAnFtVEIlTb8z4XR</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_XVKsDAUlwO-O6D8EAnFtVEIlTb8z4XR/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>2862d021b8ed06129b7366d019ded995</t>
+  </si>
+  <si>
+    <t>coverage-frag-10-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1xywmUcG9IW4u-a90hU7btXJ7KJR-m5S_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xywmUcG9IW4u-a90hU7btXJ7KJR-m5S_/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>7132d5bea8c2edb1a3e043fd68689482</t>
+  </si>
+  <si>
+    <t>coverage-frag-9-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1MIz2sYMVJnlTMJrcDOLIu4IOxLDt8AD5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MIz2sYMVJnlTMJrcDOLIu4IOxLDt8AD5/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>970ccf52dc42156fc6277f8f7ba8f3ec</t>
+  </si>
+  <si>
+    <t>coverage-frag-8-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1nMVKpMskxUa1DwDYLKf-eGt-ymvZQwkj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nMVKpMskxUa1DwDYLKf-eGt-ymvZQwkj/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>63be69194335b7150e7985146382f746</t>
+  </si>
+  <si>
+    <t>coverage-frag-7-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1U0YGY8Sqo94NBi5CrO4CbXkGcGAmgxDh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1U0YGY8Sqo94NBi5CrO4CbXkGcGAmgxDh/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>a6cc4dd1508d9ed4419ccbe0a4d7e08b</t>
+  </si>
+  <si>
+    <t>coverage-frag-5-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1shxDQxidK3C11Ba041-UnBWZHW90y_rX</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1shxDQxidK3C11Ba041-UnBWZHW90y_rX/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>08efa96e8d18378b7cb025d7d51df9c0</t>
+  </si>
+  <si>
+    <t>coverage-frag-4-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1Zy_hhxMhpn08z3n4wYYA4FV_e-Z0SSe0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Zy_hhxMhpn08z3n4wYYA4FV_e-Z0SSe0/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>ee7d9289407b688e7b7330c2e32c41d7</t>
+  </si>
+  <si>
+    <t>coverage-frag-1-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1CyZcrgqz4PdmqwvBvQH1IUv29a16PP78</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CyZcrgqz4PdmqwvBvQH1IUv29a16PP78/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>4699e12bd96aac38dc9141de74ad75d0</t>
+  </si>
+  <si>
+    <t>coverage-frag-172-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1cAsBqZ4zhafDxy40BdhNH31fLKyk3gn-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cAsBqZ4zhafDxy40BdhNH31fLKyk3gn-/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>c33fdb8e7272493e9f668e970610568c</t>
+  </si>
+  <si>
+    <t>coverage-frag-183-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1UJDWm9-tD4YEBGts6paLYFPOPXtb66Gy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UJDWm9-tD4YEBGts6paLYFPOPXtb66Gy/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>f120397a7b55e66d2a838b1668241c80</t>
+  </si>
+  <si>
+    <t>coverage-frag-160-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1Y5GlMcH0zHIF3jfmY4ie5UsQMSn-5OPY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y5GlMcH0zHIF3jfmY4ie5UsQMSn-5OPY/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>73eb1d1712dd73fdd285dde4c24e8a47</t>
+  </si>
+  <si>
+    <t>coverage-frag-181-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1T_srKrDg9jfUkq7hn2DiGv-pjr31cOLK</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1T_srKrDg9jfUkq7hn2DiGv-pjr31cOLK/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>db802b0e04e91bc64d783961c540473d</t>
+  </si>
+  <si>
+    <t>coverage-frag-149-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1k_DENLnbB8cGtU8tWPBY6MDLaTdKms4j</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1k_DENLnbB8cGtU8tWPBY6MDLaTdKms4j/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>67e7802519f9050aa16f1656f4495590</t>
+  </si>
+  <si>
+    <t>coverage-frag-146-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1uW2sfjihGek9PYKiUCMCpmAme0_AyoFp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uW2sfjihGek9PYKiUCMCpmAme0_AyoFp/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>0bccedca994c14baca423a137a01fed3</t>
+  </si>
+  <si>
+    <t>coverage-frag-147-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1CZ_fw2HLI5BYbO9-JswrKCwE9p6l0r5x</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CZ_fw2HLI5BYbO9-JswrKCwE9p6l0r5x/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>a6d5889f280c6b81af17ba5dd9368fab</t>
+  </si>
+  <si>
+    <t>coverage-frag-159-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1fr5fqgURkEGUwD9wj_h-unAnxYUthsyO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fr5fqgURkEGUwD9wj_h-unAnxYUthsyO/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>951fab5bc6f471019fbd1e2d886f5d76</t>
+  </si>
+  <si>
+    <t>coverage-frag-138-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1z9w3h48xPV0rhWrbvL2NNAPqYO9pM5aT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1z9w3h48xPV0rhWrbvL2NNAPqYO9pM5aT/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>9563463c7f60f368ab24f1603178de10</t>
+  </si>
+  <si>
+    <t>coverage-frag-113-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1iFyHjv53IJZIxwiFxvwL-sORthIv-dTk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iFyHjv53IJZIxwiFxvwL-sORthIv-dTk/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>5dd492fb46d97258c8b51686c13631db</t>
+  </si>
+  <si>
+    <t>coverage-frag-119-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1I4AHDomz5wVfQkam-DE-WkVwapPDFwdF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1I4AHDomz5wVfQkam-DE-WkVwapPDFwdF/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>ef655e470af4579bc6b1ee71372d75ea</t>
+  </si>
+  <si>
+    <t>coverage-frag-109-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1npYLBVKyrISXVVPL69PwuGDoMyU8icS-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1npYLBVKyrISXVVPL69PwuGDoMyU8icS-/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>6ce6166cca06682fdc20452b679e7abf</t>
+  </si>
+  <si>
+    <t>coverage-frag-100-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1TN95t6u2lzJLM0Fsa5sJGRTRDACEqxCF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TN95t6u2lzJLM0Fsa5sJGRTRDACEqxCF/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>62dc474c9469821761f04069dff52fbe</t>
+  </si>
+  <si>
+    <t>coverage-frag-127-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1yFSNtfO2RgTX_RTgE8UjRi8MkCLq7QDb</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yFSNtfO2RgTX_RTgE8UjRi8MkCLq7QDb/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>55128d9e1b9e463cb87ddf6595ef62fc</t>
+  </si>
+  <si>
+    <t>coverage-frag-123-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1NNFF3c7BtiCFarMYa7g-J5_n33a0vn6Y</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NNFF3c7BtiCFarMYa7g-J5_n33a0vn6Y/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>6a8491c35ef9d13630fbf871ce75099b</t>
+  </si>
+  <si>
+    <t>coverage-frag-96-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1_jdqYSuNt6ukCPk3Q16h1acvFi0JQoyY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_jdqYSuNt6ukCPk3Q16h1acvFi0JQoyY/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>77b467a83a438ec9f610dbb6ee78a596</t>
+  </si>
+  <si>
+    <t>coverage-frag-99-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1zlgP_dTCnbmzatWoDtfmCODmxbB1auVL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zlgP_dTCnbmzatWoDtfmCODmxbB1auVL/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>3bac4a2fbe2356eab89d718b11d0cb0c</t>
+  </si>
+  <si>
+    <t>coverage-frag-98-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1XqD89OTTokhObpWoP-vc9lPxu2Tlvp5b</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XqD89OTTokhObpWoP-vc9lPxu2Tlvp5b/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>4df4093fc315c4772338703fd6ff3b13</t>
+  </si>
+  <si>
+    <t>coverage-frag-124-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1xMLx87bgyVca-WLJ_8IUJeOyVo89WtzU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xMLx87bgyVca-WLJ_8IUJeOyVo89WtzU/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>37b03dd6975ebcb17a59941ba6dfadb2</t>
+  </si>
+  <si>
+    <t>coverage-frag-88-year-1992.tif</t>
+  </si>
+  <si>
+    <t>156ZGNXz5jkih1yPyzS0Hd8UhMhAlSqUT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/156ZGNXz5jkih1yPyzS0Hd8UhMhAlSqUT/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>950f1cf3dad2a3913b5144f8579238eb</t>
+  </si>
+  <si>
+    <t>coverage-frag-82-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1uOspJmxRXyDjv8_sV6Inl-YlM50v4oUB</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uOspJmxRXyDjv8_sV6Inl-YlM50v4oUB/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>0f8a2735affab6b94a215bde25f81cd3</t>
+  </si>
+  <si>
+    <t>coverage-frag-67-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1HXbboNo104XC82NEZnpXQDs4VNYa_qdU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HXbboNo104XC82NEZnpXQDs4VNYa_qdU/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>cc392ec12ef6bf94f9e99cbfe196d824</t>
+  </si>
+  <si>
+    <t>coverage-frag-83-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1yhbFL1oBcLHGvQ0z3naUDTSzcCkAzc-o</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yhbFL1oBcLHGvQ0z3naUDTSzcCkAzc-o/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>2e6c41d2c166940a8ec694e48d78f6c8</t>
+  </si>
+  <si>
+    <t>coverage-frag-73-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1OiIb_Z48o33luTNyqyWltTqCTTeBEZ3R</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OiIb_Z48o33luTNyqyWltTqCTTeBEZ3R/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>971784a04bbe1048c21fb1fbe11419c6</t>
+  </si>
+  <si>
+    <t>coverage-frag-51-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1pSputRY6T2pzY2I6UI1Enngxw6o49su9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pSputRY6T2pzY2I6UI1Enngxw6o49su9/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>71e164a0c678c0103aa9f486207af3b5</t>
+  </si>
+  <si>
+    <t>coverage-frag-70-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1kIC40OWk6Y-CLnqoq_Bqq7yQurY1MS2u</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kIC40OWk6Y-CLnqoq_Bqq7yQurY1MS2u/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>36d7c5aa2b3ef456d28bb4ca951ce177</t>
+  </si>
+  <si>
+    <t>coverage-frag-47-year-1992.tif</t>
+  </si>
+  <si>
+    <t>17hwI-JmaQ1SA0HN6lUPsZi89MBOvG1Jx</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17hwI-JmaQ1SA0HN6lUPsZi89MBOvG1Jx/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>da52f59bce03e352b6ccb5d73fb7e417</t>
+  </si>
+  <si>
+    <t>coverage-frag-40-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1hdZnw2Pm3JDFy5lxL9a5RM8dj4Q-aHIV</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hdZnw2Pm3JDFy5lxL9a5RM8dj4Q-aHIV/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>c908746a016e94478d22d2c8484ba634</t>
+  </si>
+  <si>
+    <t>coverage-frag-60-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1L9CZrjZXS0F2wPHfE6Yj5cwSbKXyiXHI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1L9CZrjZXS0F2wPHfE6Yj5cwSbKXyiXHI/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>4365debdade983a8ba107d771160995b</t>
+  </si>
+  <si>
+    <t>coverage-frag-69-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1pDUT1whIdW_z0OcCvMZFoP6ejhz9ishD</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pDUT1whIdW_z0OcCvMZFoP6ejhz9ishD/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>315ea32f1674be735b43be669c834a82</t>
+  </si>
+  <si>
+    <t>coverage-frag-71-year-1992.tif</t>
+  </si>
+  <si>
+    <t>16LDpyR-rxo2TQrcGh6JVfVuiSoJhXBcP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16LDpyR-rxo2TQrcGh6JVfVuiSoJhXBcP/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>a3d5af1829b0d4f5b8e7c8d7c46bb922</t>
+  </si>
+  <si>
+    <t>coverage-frag-50-year-1992.tif</t>
+  </si>
+  <si>
+    <t>137zFT3LrTqlDIlrbAPURAEdc7IpfRuM1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/137zFT3LrTqlDIlrbAPURAEdc7IpfRuM1/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>eb5c24fb846f6576cdce6d66622e4c62</t>
+  </si>
+  <si>
+    <t>coverage-frag-29-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1IrP1EXfS7Ddx-U6RzqzsyNBwmKo0I2A_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IrP1EXfS7Ddx-U6RzqzsyNBwmKo0I2A_/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>00f3507488ad3c2e7e0f19936a9bd296</t>
+  </si>
+  <si>
+    <t>coverage-frag-39-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1fzdHxJCvk2v3zkPfeoGfmV8LGXN7rF9j</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fzdHxJCvk2v3zkPfeoGfmV8LGXN7rF9j/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>7dd0d28d43149c5ebb0aa0816e48ffa5</t>
+  </si>
+  <si>
+    <t>coverage-frag-19-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1CyKCdQ7dOfzHMKpBqlQIZ-F68RgPtiQw</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CyKCdQ7dOfzHMKpBqlQIZ-F68RgPtiQw/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>08af3bb21baef87a490efaa99e6df8bc</t>
+  </si>
+  <si>
+    <t>coverage-frag-2-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1Pslf0S1gquGDT1R8dKBrHGI6cjRwMWhF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Pslf0S1gquGDT1R8dKBrHGI6cjRwMWhF/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>22d22038d4a5d198ed1b46a7e99d4ddb</t>
+  </si>
+  <si>
+    <t>coverage-frag-3-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1M41CaAUjxi5jc-LqEnVvTXuhMoXNOL9G</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1M41CaAUjxi5jc-LqEnVvTXuhMoXNOL9G/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>d0691ca40f5f767be8985239aa773c98</t>
+  </si>
+  <si>
+    <t>coverage-frag-6-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1UnGK88q-5Mrv34ZtP8jLH6AAnAhNyW3l</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UnGK88q-5Mrv34ZtP8jLH6AAnAhNyW3l/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>81d132a253b60b4cf4bf2bce31afe5fb</t>
+  </si>
+  <si>
+    <t>coverage-frag-20-year-1992.tif</t>
+  </si>
+  <si>
+    <t>1lk1Bauk62C3RC-2lXI-hk9eTRX2BpEJY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lk1Bauk62C3RC-2lXI-hk9eTRX2BpEJY/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>9f01dfe49935e8d8251798227bf6fc84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2305,6 +2312,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2586,14 +2602,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2625,14 +2648,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>185</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1992</v>
       </c>
       <c r="D2" t="s">
@@ -2657,14 +2680,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>184</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1992</v>
       </c>
       <c r="D3" t="s">
@@ -2689,14 +2712,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>182</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1992</v>
       </c>
       <c r="D4" t="s">
@@ -2721,14 +2744,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>180</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1992</v>
       </c>
       <c r="D5" t="s">
@@ -2753,14 +2776,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>179</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1992</v>
       </c>
       <c r="D6" t="s">
@@ -2785,14 +2808,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>178</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1992</v>
       </c>
       <c r="D7" t="s">
@@ -2817,14 +2840,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>177</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1992</v>
       </c>
       <c r="D8" t="s">
@@ -2849,14 +2872,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>176</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1992</v>
       </c>
       <c r="D9" t="s">
@@ -2881,14 +2904,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>175</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1992</v>
       </c>
       <c r="D10" t="s">
@@ -2913,14 +2936,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>173</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1992</v>
       </c>
       <c r="D11" t="s">
@@ -2945,14 +2968,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>171</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1992</v>
       </c>
       <c r="D12" t="s">
@@ -2977,14 +3000,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>170</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1992</v>
       </c>
       <c r="D13" t="s">
@@ -3009,14 +3032,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>169</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1992</v>
       </c>
       <c r="D14" t="s">
@@ -3041,14 +3064,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>168</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1992</v>
       </c>
       <c r="D15" t="s">
@@ -3073,14 +3096,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>167</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1992</v>
       </c>
       <c r="D16" t="s">
@@ -3105,14 +3128,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>166</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1992</v>
       </c>
       <c r="D17" t="s">
@@ -3137,14 +3160,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>165</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1992</v>
       </c>
       <c r="D18" t="s">
@@ -3169,14 +3192,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>82</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>164</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1992</v>
       </c>
       <c r="D19" t="s">
@@ -3201,14 +3224,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>86</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>163</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1992</v>
       </c>
       <c r="D20" t="s">
@@ -3233,14 +3256,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>90</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>162</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1992</v>
       </c>
       <c r="D21" t="s">
@@ -3265,14 +3288,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>94</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>161</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1992</v>
       </c>
       <c r="D22" t="s">
@@ -3297,14 +3320,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>98</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>158</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1992</v>
       </c>
       <c r="D23" t="s">
@@ -3329,14 +3352,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>102</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>157</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1992</v>
       </c>
       <c r="D24" t="s">
@@ -3361,14 +3384,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>106</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>156</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1992</v>
       </c>
       <c r="D25" t="s">
@@ -3393,14 +3416,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>110</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>155</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1992</v>
       </c>
       <c r="D26" t="s">
@@ -3425,14 +3448,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>114</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>154</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1992</v>
       </c>
       <c r="D27" t="s">
@@ -3457,14 +3480,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>118</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>153</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1992</v>
       </c>
       <c r="D28" t="s">
@@ -3489,14 +3512,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>122</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>152</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1992</v>
       </c>
       <c r="D29" t="s">
@@ -3521,14 +3544,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>126</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>151</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1992</v>
       </c>
       <c r="D30" t="s">
@@ -3553,14 +3576,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>130</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>150</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1992</v>
       </c>
       <c r="D31" t="s">
@@ -3585,14 +3608,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>134</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>148</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1992</v>
       </c>
       <c r="D32" t="s">
@@ -3617,14 +3640,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>138</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>145</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1992</v>
       </c>
       <c r="D33" t="s">
@@ -3649,14 +3672,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>142</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>144</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1992</v>
       </c>
       <c r="D34" t="s">
@@ -3681,14 +3704,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>146</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>143</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1992</v>
       </c>
       <c r="D35" t="s">
@@ -3713,14 +3736,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>150</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>142</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>1992</v>
       </c>
       <c r="D36" t="s">
@@ -3745,14 +3768,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>154</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>141</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1992</v>
       </c>
       <c r="D37" t="s">
@@ -3777,14 +3800,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>158</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>140</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1992</v>
       </c>
       <c r="D38" t="s">
@@ -3809,14 +3832,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>162</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>139</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1992</v>
       </c>
       <c r="D39" t="s">
@@ -3841,14 +3864,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>166</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>137</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1992</v>
       </c>
       <c r="D40" t="s">
@@ -3873,14 +3896,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>170</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>136</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1992</v>
       </c>
       <c r="D41" t="s">
@@ -3905,14 +3928,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>174</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>135</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1992</v>
       </c>
       <c r="D42" t="s">
@@ -3937,14 +3960,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>178</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>134</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>1992</v>
       </c>
       <c r="D43" t="s">
@@ -3969,14 +3992,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>182</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>133</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1992</v>
       </c>
       <c r="D44" t="s">
@@ -4001,14 +4024,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>186</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>132</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1992</v>
       </c>
       <c r="D45" t="s">
@@ -4033,14 +4056,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>190</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>131</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>1992</v>
       </c>
       <c r="D46" t="s">
@@ -4065,14 +4088,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>194</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>130</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1992</v>
       </c>
       <c r="D47" t="s">
@@ -4097,14 +4120,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>198</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>129</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1992</v>
       </c>
       <c r="D48" t="s">
@@ -4129,14 +4152,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>202</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>128</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>1992</v>
       </c>
       <c r="D49" t="s">
@@ -4161,14 +4184,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>206</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>126</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>1992</v>
       </c>
       <c r="D50" t="s">
@@ -4193,14 +4216,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>210</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>125</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>1992</v>
       </c>
       <c r="D51" t="s">
@@ -4225,14 +4248,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>214</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>122</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>1992</v>
       </c>
       <c r="D52" t="s">
@@ -4257,14 +4280,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>218</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>121</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>1992</v>
       </c>
       <c r="D53" t="s">
@@ -4289,14 +4312,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>222</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>120</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>1992</v>
       </c>
       <c r="D54" t="s">
@@ -4321,14 +4344,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>226</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>118</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>1992</v>
       </c>
       <c r="D55" t="s">
@@ -4353,14 +4376,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>230</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>117</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>1992</v>
       </c>
       <c r="D56" t="s">
@@ -4385,14 +4408,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>234</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>116</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>1992</v>
       </c>
       <c r="D57" t="s">
@@ -4417,14 +4440,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>238</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>115</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>1992</v>
       </c>
       <c r="D58" t="s">
@@ -4449,14 +4472,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>242</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>114</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>1992</v>
       </c>
       <c r="D59" t="s">
@@ -4481,14 +4504,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>246</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>112</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>1992</v>
       </c>
       <c r="D60" t="s">
@@ -4513,14 +4536,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>250</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>111</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>1992</v>
       </c>
       <c r="D61" t="s">
@@ -4545,14 +4568,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>254</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>110</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>1992</v>
       </c>
       <c r="D62" t="s">
@@ -4577,14 +4600,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>258</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>108</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>1992</v>
       </c>
       <c r="D63" t="s">
@@ -4609,14 +4632,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>262</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>107</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>1992</v>
       </c>
       <c r="D64" t="s">
@@ -4641,14 +4664,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>266</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>106</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>1992</v>
       </c>
       <c r="D65" t="s">
@@ -4673,14 +4696,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>270</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>105</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>1992</v>
       </c>
       <c r="D66" t="s">
@@ -4705,14 +4728,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>274</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>104</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>1992</v>
       </c>
       <c r="D67" t="s">
@@ -4737,14 +4760,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>278</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>103</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>1992</v>
       </c>
       <c r="D68" t="s">
@@ -4769,14 +4792,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>282</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>102</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>1992</v>
       </c>
       <c r="D69" t="s">
@@ -4801,14 +4824,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>286</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>101</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>1992</v>
       </c>
       <c r="D70" t="s">
@@ -4833,14 +4856,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>290</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>97</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>1992</v>
       </c>
       <c r="D71" t="s">
@@ -4865,14 +4888,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>294</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>95</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>1992</v>
       </c>
       <c r="D72" t="s">
@@ -4897,14 +4920,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>298</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>94</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>1992</v>
       </c>
       <c r="D73" t="s">
@@ -4929,14 +4952,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>302</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>93</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>1992</v>
       </c>
       <c r="D74" t="s">
@@ -4961,14 +4984,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>306</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>92</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>1992</v>
       </c>
       <c r="D75" t="s">
@@ -4993,14 +5016,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>310</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>91</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>1992</v>
       </c>
       <c r="D76" t="s">
@@ -5025,14 +5048,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>314</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>90</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>1992</v>
       </c>
       <c r="D77" t="s">
@@ -5057,14 +5080,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>318</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>89</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>1992</v>
       </c>
       <c r="D78" t="s">
@@ -5089,14 +5112,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>322</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>87</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>1992</v>
       </c>
       <c r="D79" t="s">
@@ -5121,14 +5144,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>326</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>86</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>1992</v>
       </c>
       <c r="D80" t="s">
@@ -5153,14 +5176,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>330</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>85</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>1992</v>
       </c>
       <c r="D81" t="s">
@@ -5185,14 +5208,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>334</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>84</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>1992</v>
       </c>
       <c r="D82" t="s">
@@ -5217,14 +5240,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>338</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>81</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>1992</v>
       </c>
       <c r="D83" t="s">
@@ -5249,14 +5272,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>342</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>80</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>1992</v>
       </c>
       <c r="D84" t="s">
@@ -5281,14 +5304,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>346</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>79</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>1992</v>
       </c>
       <c r="D85" t="s">
@@ -5313,14 +5336,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>350</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>78</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>1992</v>
       </c>
       <c r="D86" t="s">
@@ -5345,14 +5368,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>354</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>77</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>1992</v>
       </c>
       <c r="D87" t="s">
@@ -5377,14 +5400,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>358</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>76</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>1992</v>
       </c>
       <c r="D88" t="s">
@@ -5409,14 +5432,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>362</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>75</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>1992</v>
       </c>
       <c r="D89" t="s">
@@ -5441,14 +5464,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>366</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>74</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>1992</v>
       </c>
       <c r="D90" t="s">
@@ -5473,14 +5496,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>370</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>72</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>1992</v>
       </c>
       <c r="D91" t="s">
@@ -5505,14 +5528,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>374</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>68</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>1992</v>
       </c>
       <c r="D92" t="s">
@@ -5537,14 +5560,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>378</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>66</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>1992</v>
       </c>
       <c r="D93" t="s">
@@ -5569,14 +5592,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>382</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>65</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>1992</v>
       </c>
       <c r="D94" t="s">
@@ -5601,14 +5624,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>386</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>64</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>1992</v>
       </c>
       <c r="D95" t="s">
@@ -5633,14 +5656,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>390</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>63</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>1992</v>
       </c>
       <c r="D96" t="s">
@@ -5665,14 +5688,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>394</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>62</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>1992</v>
       </c>
       <c r="D97" t="s">
@@ -5697,14 +5720,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>398</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>61</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>1992</v>
       </c>
       <c r="D98" t="s">
@@ -5729,14 +5752,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>402</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>59</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>1992</v>
       </c>
       <c r="D99" t="s">
@@ -5761,14 +5784,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>406</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>58</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>1992</v>
       </c>
       <c r="D100" t="s">
@@ -5793,14 +5816,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>410</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>57</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>1992</v>
       </c>
       <c r="D101" t="s">
@@ -5825,14 +5848,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>414</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>56</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>1992</v>
       </c>
       <c r="D102" t="s">
@@ -5857,14 +5880,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>418</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>55</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>1992</v>
       </c>
       <c r="D103" t="s">
@@ -5889,14 +5912,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>422</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>54</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>1992</v>
       </c>
       <c r="D104" t="s">
@@ -5921,14 +5944,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>426</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>53</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>1992</v>
       </c>
       <c r="D105" t="s">
@@ -5953,14 +5976,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>430</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>52</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>1992</v>
       </c>
       <c r="D106" t="s">
@@ -5985,14 +6008,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>434</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>49</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>1992</v>
       </c>
       <c r="D107" t="s">
@@ -6017,14 +6040,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>438</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>48</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>1992</v>
       </c>
       <c r="D108" t="s">
@@ -6049,14 +6072,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>442</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>46</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>1992</v>
       </c>
       <c r="D109" t="s">
@@ -6081,14 +6104,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>446</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>45</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>1992</v>
       </c>
       <c r="D110" t="s">
@@ -6113,14 +6136,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>450</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>44</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>1992</v>
       </c>
       <c r="D111" t="s">
@@ -6145,14 +6168,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>454</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>43</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>1992</v>
       </c>
       <c r="D112" t="s">
@@ -6177,14 +6200,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>458</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>42</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>1992</v>
       </c>
       <c r="D113" t="s">
@@ -6209,14 +6232,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>462</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>41</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>1992</v>
       </c>
       <c r="D114" t="s">
@@ -6241,14 +6264,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>466</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>38</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>1992</v>
       </c>
       <c r="D115" t="s">
@@ -6273,14 +6296,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>470</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>37</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>1992</v>
       </c>
       <c r="D116" t="s">
@@ -6305,14 +6328,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>474</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>36</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>1992</v>
       </c>
       <c r="D117" t="s">
@@ -6337,14 +6360,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>478</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>35</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>1992</v>
       </c>
       <c r="D118" t="s">
@@ -6369,14 +6392,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>482</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>34</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>1992</v>
       </c>
       <c r="D119" t="s">
@@ -6401,14 +6424,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>486</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>33</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>1992</v>
       </c>
       <c r="D120" t="s">
@@ -6433,14 +6456,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>490</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>32</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>1992</v>
       </c>
       <c r="D121" t="s">
@@ -6465,14 +6488,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>494</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>31</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>1992</v>
       </c>
       <c r="D122" t="s">
@@ -6497,14 +6520,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>498</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>30</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>1992</v>
       </c>
       <c r="D123" t="s">
@@ -6529,14 +6552,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>502</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>28</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>1992</v>
       </c>
       <c r="D124" t="s">
@@ -6561,14 +6584,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>506</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>27</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>1992</v>
       </c>
       <c r="D125" t="s">
@@ -6593,14 +6616,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>510</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>26</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>1992</v>
       </c>
       <c r="D126" t="s">
@@ -6625,14 +6648,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>514</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>25</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>1992</v>
       </c>
       <c r="D127" t="s">
@@ -6657,14 +6680,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>518</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>24</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>1992</v>
       </c>
       <c r="D128" t="s">
@@ -6689,14 +6712,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>522</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>23</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>1992</v>
       </c>
       <c r="D129" t="s">
@@ -6721,14 +6744,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>526</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>22</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>1992</v>
       </c>
       <c r="D130" t="s">
@@ -6753,14 +6776,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>530</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>21</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>1992</v>
       </c>
       <c r="D131" t="s">
@@ -6785,14 +6808,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>534</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>18</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>1992</v>
       </c>
       <c r="D132" t="s">
@@ -6817,14 +6840,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>538</v>
       </c>
-      <c r="B133" t="n">
-        <v>17</v>
-      </c>
-      <c r="C133" t="n">
+      <c r="B133">
+        <v>17</v>
+      </c>
+      <c r="C133">
         <v>1992</v>
       </c>
       <c r="D133" t="s">
@@ -6849,14 +6872,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>542</v>
       </c>
-      <c r="B134" t="n">
-        <v>16</v>
-      </c>
-      <c r="C134" t="n">
+      <c r="B134">
+        <v>16</v>
+      </c>
+      <c r="C134">
         <v>1992</v>
       </c>
       <c r="D134" t="s">
@@ -6881,14 +6904,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>546</v>
       </c>
-      <c r="B135" t="n">
-        <v>15</v>
-      </c>
-      <c r="C135" t="n">
+      <c r="B135">
+        <v>15</v>
+      </c>
+      <c r="C135">
         <v>1992</v>
       </c>
       <c r="D135" t="s">
@@ -6913,14 +6936,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>550</v>
       </c>
-      <c r="B136" t="n">
-        <v>14</v>
-      </c>
-      <c r="C136" t="n">
+      <c r="B136">
+        <v>14</v>
+      </c>
+      <c r="C136">
         <v>1992</v>
       </c>
       <c r="D136" t="s">
@@ -6945,14 +6968,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>554</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>13</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>1992</v>
       </c>
       <c r="D137" t="s">
@@ -6977,14 +7000,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>558</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>12</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>1992</v>
       </c>
       <c r="D138" t="s">
@@ -7009,14 +7032,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>562</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>11</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>1992</v>
       </c>
       <c r="D139" t="s">
@@ -7041,14 +7064,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>566</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>10</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>1992</v>
       </c>
       <c r="D140" t="s">
@@ -7073,14 +7096,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>570</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>9</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>1992</v>
       </c>
       <c r="D141" t="s">
@@ -7105,14 +7128,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>574</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>8</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>1992</v>
       </c>
       <c r="D142" t="s">
@@ -7137,14 +7160,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>578</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>7</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>1992</v>
       </c>
       <c r="D143" t="s">
@@ -7169,14 +7192,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>582</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>5</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>1992</v>
       </c>
       <c r="D144" t="s">
@@ -7201,14 +7224,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>586</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>4</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>1992</v>
       </c>
       <c r="D145" t="s">
@@ -7233,14 +7256,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>590</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>1</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>1992</v>
       </c>
       <c r="D146" t="s">
@@ -7265,14 +7288,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>594</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>172</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>1992</v>
       </c>
       <c r="D147" t="s">
@@ -7297,14 +7320,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>598</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>183</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>1992</v>
       </c>
       <c r="D148" t="s">
@@ -7329,14 +7352,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>602</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>160</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>1992</v>
       </c>
       <c r="D149" t="s">
@@ -7361,14 +7384,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>606</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>181</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>1992</v>
       </c>
       <c r="D150" t="s">
@@ -7393,14 +7416,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>610</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>149</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>1992</v>
       </c>
       <c r="D151" t="s">
@@ -7425,14 +7448,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>614</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>146</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>1992</v>
       </c>
       <c r="D152" t="s">
@@ -7457,14 +7480,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>618</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>147</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>1992</v>
       </c>
       <c r="D153" t="s">
@@ -7489,14 +7512,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>622</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>159</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>1992</v>
       </c>
       <c r="D154" t="s">
@@ -7521,14 +7544,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>626</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>138</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>1992</v>
       </c>
       <c r="D155" t="s">
@@ -7553,14 +7576,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>630</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>113</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>1992</v>
       </c>
       <c r="D156" t="s">
@@ -7585,14 +7608,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>634</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>119</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>1992</v>
       </c>
       <c r="D157" t="s">
@@ -7617,14 +7640,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>638</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>109</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>1992</v>
       </c>
       <c r="D158" t="s">
@@ -7649,14 +7672,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>642</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>100</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>1992</v>
       </c>
       <c r="D159" t="s">
@@ -7681,14 +7704,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>646</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>127</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>1992</v>
       </c>
       <c r="D160" t="s">
@@ -7713,14 +7736,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>650</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>123</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>1992</v>
       </c>
       <c r="D161" t="s">
@@ -7745,14 +7768,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>654</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>96</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>1992</v>
       </c>
       <c r="D162" t="s">
@@ -7777,14 +7800,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>658</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>99</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>1992</v>
       </c>
       <c r="D163" t="s">
@@ -7809,14 +7832,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>662</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>98</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>1992</v>
       </c>
       <c r="D164" t="s">
@@ -7841,14 +7864,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>666</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>124</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>1992</v>
       </c>
       <c r="D165" t="s">
@@ -7873,14 +7896,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>670</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>88</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>1992</v>
       </c>
       <c r="D166" t="s">
@@ -7905,14 +7928,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>674</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>82</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>1992</v>
       </c>
       <c r="D167" t="s">
@@ -7937,14 +7960,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>678</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>67</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>1992</v>
       </c>
       <c r="D168" t="s">
@@ -7969,14 +7992,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>682</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>83</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>1992</v>
       </c>
       <c r="D169" t="s">
@@ -8001,14 +8024,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>686</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>73</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>1992</v>
       </c>
       <c r="D170" t="s">
@@ -8033,14 +8056,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>690</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>51</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>1992</v>
       </c>
       <c r="D171" t="s">
@@ -8065,14 +8088,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>694</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>70</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>1992</v>
       </c>
       <c r="D172" t="s">
@@ -8097,14 +8120,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>698</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>47</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>1992</v>
       </c>
       <c r="D173" t="s">
@@ -8129,14 +8152,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>702</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>40</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>1992</v>
       </c>
       <c r="D174" t="s">
@@ -8161,14 +8184,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>706</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>60</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>1992</v>
       </c>
       <c r="D175" t="s">
@@ -8193,14 +8216,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>710</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>69</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>1992</v>
       </c>
       <c r="D176" t="s">
@@ -8225,14 +8248,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>714</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>71</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>1992</v>
       </c>
       <c r="D177" t="s">
@@ -8257,14 +8280,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>718</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>50</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>1992</v>
       </c>
       <c r="D178" t="s">
@@ -8289,14 +8312,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>722</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>29</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>1992</v>
       </c>
       <c r="D179" t="s">
@@ -8321,14 +8344,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>726</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>39</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>1992</v>
       </c>
       <c r="D180" t="s">
@@ -8353,14 +8376,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>730</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>19</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>1992</v>
       </c>
       <c r="D181" t="s">
@@ -8385,14 +8408,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>734</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>2</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>1992</v>
       </c>
       <c r="D182" t="s">
@@ -8417,14 +8440,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>738</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>3</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>1992</v>
       </c>
       <c r="D183" t="s">
@@ -8449,14 +8472,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>742</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>6</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>1992</v>
       </c>
       <c r="D184" t="s">
@@ -8481,14 +8504,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>746</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>20</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>1992</v>
       </c>
       <c r="D185" t="s">
@@ -8515,6 +8538,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>